--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="26730" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>test_case_name</t>
   </si>
@@ -46,7 +46,7 @@
     <t>after_sql</t>
   </si>
   <si>
-    <t>after_sql_checkout</t>
+    <t>sql_checkout</t>
   </si>
   <si>
     <t>正常登录</t>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>"code":"200"</t>
+  </si>
+  <si>
+    <t>登录-密码错误</t>
+  </si>
+  <si>
+    <t>{"emailAddress":"mtbsw5@126.com","password":"Mtbsw543211"}</t>
+  </si>
+  <si>
+    <t>"code":"998"</t>
   </si>
 </sst>
 </file>
@@ -1035,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
@@ -1053,7 +1062,7 @@
     <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1109,6 +1118,26 @@
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>test_case_name</t>
   </si>
@@ -46,10 +46,10 @@
     <t>after_sql</t>
   </si>
   <si>
-    <t>sql_checkout</t>
-  </si>
-  <si>
-    <t>正常登录</t>
+    <t>after_sql_checkout</t>
+  </si>
+  <si>
+    <t>登录-正常登录</t>
   </si>
   <si>
     <t>/app/user/loginNew</t>
@@ -61,10 +61,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>{"emailAddress":"mtbsw5@126.com","password":"Mtbsw54321"}</t>
+    <t>{"emailAddress":"mtbsw4@126.com","password":"Mtbsw54321"}</t>
   </si>
   <si>
     <t>"code":"200"</t>
+  </si>
+  <si>
+    <t>select online_status from zns_user where id =345</t>
   </si>
   <si>
     <t>登录-密码错误</t>
@@ -1046,8 +1049,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1100,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:9">
+    <row r="2" ht="40.5" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1118,11 +1121,17 @@
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -1134,10 +1143,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26730" windowHeight="13140"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>test_case_name</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>"code":"998"</t>
+  </si>
+  <si>
+    <t>开始跑</t>
+  </si>
+  <si>
+    <t>/app/runActivity/startRun</t>
+  </si>
+  <si>
+    <t>{"email":"mtbsw5@126.com"}</t>
+  </si>
+  <si>
+    <t>{"activityId":24599,"challengeRank":4,"challengedUserId":63353,"pageNum":1,"pageSize":10}</t>
   </si>
 </sst>
 </file>
@@ -1047,20 +1059,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.675" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.125" style="1" customWidth="1"/>
@@ -1149,6 +1162,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" ht="54" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>test_case_name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>after_sql_checkout</t>
   </si>
   <si>
+    <t>fix_sql</t>
+  </si>
+  <si>
     <t>登录-正常登录</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>select online_status from zns_user where id =345</t>
+  </si>
+  <si>
+    <t>update zns_user set online_status = 0 where id =345</t>
   </si>
   <si>
     <t>登录-密码错误</t>
@@ -1059,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1073,15 +1079,16 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.675" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44166666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
-    <col min="12" max="16383" width="9" style="1"/>
+    <col min="12" max="12" width="17.675" style="1" customWidth="1"/>
+    <col min="13" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" ht="54" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,71 +1122,77 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="40.5" spans="1:11">
+    <row r="2" ht="40.5" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="26730" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1079,7 +1079,7 @@
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8833333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.125" style="1" customWidth="1"/>
@@ -1088,7 +1088,7 @@
     <col min="13" max="16383" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:12">
+    <row r="1" ht="40.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -64,22 +64,22 @@
     <t>password</t>
   </si>
   <si>
-    <t>{"emailAddress":"mtbsw4@126.com","password":"Mtbsw54321"}</t>
+    <t>{"emailAddress":"mtbsw2@126.com","password":"Mtbsw54321"}</t>
   </si>
   <si>
     <t>"code":"200"</t>
   </si>
   <si>
-    <t>select online_status from zns_user where id =345</t>
-  </si>
-  <si>
-    <t>update zns_user set online_status = 0 where id =345</t>
+    <t>select online_status from zns_user where id =343</t>
+  </si>
+  <si>
+    <t>update zns_user set online_status = 0 where id =343</t>
   </si>
   <si>
     <t>登录-密码错误</t>
   </si>
   <si>
-    <t>{"emailAddress":"mtbsw5@126.com","password":"Mtbsw543211"}</t>
+    <t>{"emailAddress":"mtbsw2@126.com","password":"Mtbsw543211"}</t>
   </si>
   <si>
     <t>"code":"998"</t>
@@ -1067,8 +1067,8 @@
   <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1076,7 +1076,7 @@
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.0583333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.8833333333333" style="1" customWidth="1"/>
@@ -1085,10 +1085,10 @@
     <col min="10" max="10" width="27.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.675" style="1" customWidth="1"/>
-    <col min="13" max="16383" width="9" style="1"/>
+    <col min="13" max="16382" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:12">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>test_case_name</t>
   </si>
@@ -91,10 +91,52 @@
     <t>/app/runActivity/startRun</t>
   </si>
   <si>
-    <t>{"email":"mtbsw5@126.com"}</t>
+    <t>{"email":"mtbsw2@126.com"}</t>
   </si>
   <si>
     <t>{"activityId":24599,"challengeRank":4,"challengedUserId":63353,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>app数据上传</t>
+  </si>
+  <si>
+    <t>/app/equipment/data</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"activityId":52556,"courseId":0,"data":[{"calories":32,"gradient":0,"heartRate":0,"mileage":397,"runTime":119917,"stepNum":0,"velocity":20000},{"calories":33,"gradient":0,"heartRate":0,"mileage":402,"runTime":120917,"stepNum":0,"velocity":20000},{"calories":33,"gradient":0,"heartRate":0,"mileage":408,"runTime":121917,"stepNum":0,"velocity":20000},{"calories":34,"gradient":0,"heartRate":0,"mileage":414,"runTime":122917,"stepNum":0,"velocity":20000},{"calories":34,"gradient":0,"heartRate":0,"mileage":419,"runTime":123917,"stepNum":0,"velocity":20000},{"calories":35,"gradient":0,"heartRate":0,"mileage":425,"runTime":124917,"stepNum":0,"velocity":20000},{"calories":35,"gradient":0,"heartRate":0,"mileage":430,"runTime":125917,"stepNum":0,"velocity":20000},{"calories":36,"gradient":0,"heartRate":0,"mileage":436,"runTime":126917,"stepNum":0,"velocity":20000},{"calories":36,"gradient":0,"heartRate":0,"mileage":441,"runTime":127917,"stepNum":0,"velocity":20000},{"calories":37,"gradient":0,"heartRate":0,"mileage":447,"runTime":128917,"stepNum":0,"velocity":20000},{"calories":37,"gradient":0,"heartRate":0,"mileage":452,"runTime":129917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":458,"runTime":130917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":464,"runTime":131917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":469,"runTime":132917,"stepNum":0,"velocity":20000},{"calories":39,"gradient":0,"heartRate":0,"mileage":475,"runTime":133917,"stepNum":0,"velocity":20000},{"calories":39,"gradient":0,"heartRate":0,"mileage":480,"runTime":134917,"stepNum":0,"velocity":20000},{"calories":40,"gradient":0,"heartRate":0,"mileage":486,"runTime":135917,"stepNum":0,"velocity":20000},{"calories":40,"gradient":0,"heartRate":0,"mileage":491,"runTime":136917,"stepNum":0,"velocity":20000},{"calories":41,"gradient":0,"heartRate":0,"mileage":497,"runTime":137917,"stepNum":0,"velocity":20000},{"calories":41,"gradient":0,"heartRate":0,"mileage":502,"runTime":138917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":508,"runTime":139917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":514,"runTime":140917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":514,"runTime":141717,"stepNum":0,"velocity":0}],"distanceTarget":1000,"firmwareVersion":23,"id_no":330,"order_no":133,"routeId":401,"run_status":1,"taskId":0,"timeTarget":0,"unique_code":"MQmq58CF791677A\u0000"} </t>
+  </si>
+  <si>
+    <r>
+      <t>课程首页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>新</t>
+    </r>
+  </si>
+  <si>
+    <t>/app/course/home</t>
+  </si>
+  <si>
+    <t>账户信息</t>
+  </si>
+  <si>
+    <t>/app/account/info</t>
   </si>
 </sst>
 </file>
@@ -107,13 +149,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -568,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,37 +632,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,103 +665,118 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,20 +1126,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.05" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.0583333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.8833333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
@@ -1086,9 +1147,10 @@
     <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.675" style="1" customWidth="1"/>
     <col min="13" max="16382" width="9" style="1"/>
+    <col min="16383" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:12">
+    <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:9">
+    <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1175,7 +1237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:9">
+    <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1194,6 +1256,445 @@
       <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:3">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:3">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:3">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:3">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:3">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:3">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:3">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:3">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:3">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:3">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:3">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:3">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:3">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:3">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:3">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:3">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:3">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:3">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:3">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:3">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:3">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:3">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:3">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:3">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:3">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:3">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:3">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:3">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:3">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:3">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:3">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:3">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:3">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:3">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:3">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:3">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:3">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,17 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26730" windowHeight="13140"/>
+    <workbookView windowWidth="26730" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">login!$D$1:$D$81</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
+  <si>
+    <t>is_test</t>
+  </si>
+  <si>
+    <t>test_model</t>
+  </si>
   <si>
     <t>test_case_name</t>
   </si>
@@ -52,6 +61,9 @@
     <t>fix_sql</t>
   </si>
   <si>
+    <t>登录注册</t>
+  </si>
+  <si>
     <t>登录-正常登录</t>
   </si>
   <si>
@@ -110,6 +122,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
       <t>课程首页</t>
     </r>
     <r>
@@ -137,6 +154,250 @@
   </si>
   <si>
     <t>/app/account/info</t>
+  </si>
+  <si>
+    <t>/app/route/list</t>
+  </si>
+  <si>
+    <t>进入游戏前</t>
+  </si>
+  <si>
+    <t>app/friend/friendList</t>
+  </si>
+  <si>
+    <t>课程列表页（训练场点击训练课程/TOP课程/发现课程）</t>
+  </si>
+  <si>
+    <t>/app/course/list/v1</t>
+  </si>
+  <si>
+    <t>/app/course/info</t>
+  </si>
+  <si>
+    <t>/app/exposure/page</t>
+  </si>
+  <si>
+    <t>/app/course/partake</t>
+  </si>
+  <si>
+    <t>/app/course/exerciseList</t>
+  </si>
+  <si>
+    <t>/app/course/start</t>
+  </si>
+  <si>
+    <t>/app/system/get/config</t>
+  </si>
+  <si>
+    <t>/app/system/addressLib</t>
+  </si>
+  <si>
+    <t>/app/user/saveInfo</t>
+  </si>
+  <si>
+    <t>/app/friend/add</t>
+  </si>
+  <si>
+    <t>/app/friend/delete</t>
+  </si>
+  <si>
+    <t>/app/user/search</t>
+  </si>
+  <si>
+    <t>/app/user/otherHomepage</t>
+  </si>
+  <si>
+    <t>/app/user/nearbyUser</t>
+  </si>
+  <si>
+    <t>/app/friend/fansList</t>
+  </si>
+  <si>
+    <t>/app/home/pop</t>
+  </si>
+  <si>
+    <t>/app/friend/followList</t>
+  </si>
+  <si>
+    <t>/h5/user/getInfo</t>
+  </si>
+  <si>
+    <t>/h5/exp/user/list</t>
+  </si>
+  <si>
+    <t>/h5/exp/home</t>
+  </si>
+  <si>
+    <t>/app/userCoupon/list</t>
+  </si>
+  <si>
+    <t>/app/userCoupon/exchange</t>
+  </si>
+  <si>
+    <t>/app/userCoupon/useCoupon</t>
+  </si>
+  <si>
+    <t>/app/month/honour/weekData</t>
+  </si>
+  <si>
+    <t>/app/month/honour/exchangeAward</t>
+  </si>
+  <si>
+    <t>/app/month/honour/exchangeTop</t>
+  </si>
+  <si>
+    <t>/app/month/honour/list</t>
+  </si>
+  <si>
+    <t>/app/meme/myAward</t>
+  </si>
+  <si>
+    <t>/h5/bonusPool/page</t>
+  </si>
+  <si>
+    <t>/app/runActivity/myRecords</t>
+  </si>
+  <si>
+    <t>获取日期</t>
+  </si>
+  <si>
+    <t>/app/runActivity/activityParticipation</t>
+  </si>
+  <si>
+    <t>获取某日比赛</t>
+  </si>
+  <si>
+    <t>/app/runActivity/myDayRecords</t>
+  </si>
+  <si>
+    <t>里程查看</t>
+  </si>
+  <si>
+    <t>/app/runData/runningRecord</t>
+  </si>
+  <si>
+    <t>跑步数据列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/app/runData/runningRecordList </t>
+  </si>
+  <si>
+    <t>跑步数据分享</t>
+  </si>
+  <si>
+    <t>/app/runData/getShareData</t>
+  </si>
+  <si>
+    <t>/h5/medal/list</t>
+  </si>
+  <si>
+    <t>/h5/medal/pos</t>
+  </si>
+  <si>
+    <t>/app/pay/initiatePayment</t>
+  </si>
+  <si>
+    <t>/app/pay/cash</t>
+  </si>
+  <si>
+    <t>/h5/goods/list</t>
+  </si>
+  <si>
+    <t>/h5/pay/payOrder</t>
+  </si>
+  <si>
+    <t>/h5/distribution/promotionCenter</t>
+  </si>
+  <si>
+    <t>/h5/distribution/promotionCenterList</t>
+  </si>
+  <si>
+    <t>/app/system/contactusMessage</t>
+  </si>
+  <si>
+    <t>/h5/order/list</t>
+  </si>
+  <si>
+    <t>/h5/order/orderInfo</t>
+  </si>
+  <si>
+    <t>/h5/helpCenter/qaList</t>
+  </si>
+  <si>
+    <t>/app/user/feedback</t>
+  </si>
+  <si>
+    <t>/h5/helpCenter/question/list</t>
+  </si>
+  <si>
+    <t>/app/runActivity/getTeamActivity</t>
+  </si>
+  <si>
+    <t>/app/mind/cancel/match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/app/mind/match
+</t>
+  </si>
+  <si>
+    <t>/app/friend/friendList</t>
+  </si>
+  <si>
+    <t>/app/mind/friend/match/new</t>
+  </si>
+  <si>
+    <t>/app/runActivity/routeDetail</t>
+  </si>
+  <si>
+    <t>/app/runActivity/getActivityState</t>
+  </si>
+  <si>
+    <t>/app/runActivity/reportUserRunStatus</t>
+  </si>
+  <si>
+    <t>/app/account/colorEggConfig</t>
+  </si>
+  <si>
+    <t>/app/system/getResourceConfig</t>
+  </si>
+  <si>
+    <t>/h5/system/config</t>
+  </si>
+  <si>
+    <t>/app/user/sendVerificationCode</t>
+  </si>
+  <si>
+    <t>/app/user/register</t>
+  </si>
+  <si>
+    <t>/app/homePage/v2</t>
+  </si>
+  <si>
+    <t>/app/runActivity/getMyActivity</t>
+  </si>
+  <si>
+    <t>/app/runActivity/checkHandleActivity</t>
+  </si>
+  <si>
+    <t>/app/runActivity/activityPage</t>
+  </si>
+  <si>
+    <t>/app/runActivity/launchActivity</t>
+  </si>
+  <si>
+    <t>/app/runActivity/inviteRunner</t>
+  </si>
+  <si>
+    <t>/app/runActivity/handleActivity</t>
+  </si>
+  <si>
+    <t>/app/runActivity/checkReportUserRun</t>
+  </si>
+  <si>
+    <t>/app/runActivity/activityDetail</t>
+  </si>
+  <si>
+    <t>/app/runActivity/activityUser</t>
   </si>
 </sst>
 </file>
@@ -762,21 +1023,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1126,577 +1390,1117 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.05" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.0583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.675" style="1" customWidth="1"/>
-    <col min="13" max="16382" width="9" style="1"/>
-    <col min="16383" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.7916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.05" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.225" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.0583333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="27.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.675" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:14">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="71" customHeight="1" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
       <c r="C8" s="3"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
       <c r="C11"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:3">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
       <c r="C12"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
       <c r="C13"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
       <c r="C14"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
       <c r="C15"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16"/>
-      <c r="B16"/>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
       <c r="C16"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:3">
-      <c r="A17"/>
-      <c r="B17"/>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
       <c r="C17"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18"/>
-      <c r="B18"/>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
       <c r="C18"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:3">
-      <c r="A19"/>
-      <c r="B19"/>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
       <c r="C19"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20"/>
-      <c r="B20"/>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
       <c r="C20"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21"/>
-      <c r="B21"/>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
       <c r="C21"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22"/>
-      <c r="B22"/>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23"/>
-      <c r="B23"/>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
       <c r="C23"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24"/>
-      <c r="B24"/>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
       <c r="C24"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25"/>
-      <c r="B25"/>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
       <c r="C25"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26"/>
-      <c r="B26"/>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
       <c r="C26"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:3">
-      <c r="A27"/>
-      <c r="B27"/>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
       <c r="C27"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:3">
-      <c r="A28"/>
-      <c r="B28"/>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
       <c r="C28"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:3">
-      <c r="A29"/>
-      <c r="B29"/>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
       <c r="C29"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:3">
-      <c r="A30"/>
-      <c r="B30"/>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
       <c r="C30"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:3">
-      <c r="A31"/>
-      <c r="B31"/>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
       <c r="C31"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:3">
-      <c r="A32"/>
-      <c r="B32"/>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
       <c r="C32"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:3">
-      <c r="A33"/>
-      <c r="B33"/>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
       <c r="C33"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:3">
-      <c r="A34"/>
-      <c r="B34"/>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
       <c r="C34"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:3">
-      <c r="A35"/>
-      <c r="B35"/>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
       <c r="C35"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:3">
-      <c r="A36"/>
-      <c r="B36"/>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
       <c r="C36"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:3">
-      <c r="A37"/>
-      <c r="B37"/>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
       <c r="C37"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:3">
-      <c r="A38"/>
-      <c r="B38"/>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
       <c r="C38"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:3">
-      <c r="A39"/>
-      <c r="B39"/>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
       <c r="C39"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:3">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:3">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:3">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:3">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:3">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:3">
-      <c r="A45"/>
-      <c r="B45"/>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
       <c r="C45"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:3">
-      <c r="A46"/>
-      <c r="B46"/>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
       <c r="C46"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:3">
-      <c r="A47"/>
-      <c r="B47"/>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
       <c r="C47"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:3">
-      <c r="A48"/>
-      <c r="B48"/>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
       <c r="C48"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:3">
-      <c r="A49"/>
-      <c r="B49"/>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
       <c r="C49"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:3">
-      <c r="A50"/>
-      <c r="B50"/>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
       <c r="C50"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:3">
-      <c r="A51"/>
-      <c r="B51"/>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
       <c r="C51"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:3">
-      <c r="A52"/>
-      <c r="B52"/>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
       <c r="C52"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:3">
-      <c r="A53"/>
-      <c r="B53"/>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
       <c r="C53"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:3">
-      <c r="A54"/>
-      <c r="B54"/>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
       <c r="C54"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:3">
-      <c r="A55"/>
-      <c r="B55"/>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
       <c r="C55"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:3">
-      <c r="A56"/>
-      <c r="B56"/>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:5">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
       <c r="C56"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:3">
-      <c r="A57"/>
-      <c r="B57"/>
+      <c r="D56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
       <c r="C57"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:3">
-      <c r="A58"/>
-      <c r="B58"/>
+      <c r="D57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:5">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
       <c r="C58"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:3">
-      <c r="A59"/>
-      <c r="B59"/>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:5">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
       <c r="C59"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:3">
-      <c r="A60"/>
-      <c r="B60"/>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
       <c r="C60"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:3">
-      <c r="A61"/>
-      <c r="B61"/>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:5">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
       <c r="C61"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:3">
-      <c r="A62"/>
-      <c r="B62"/>
+      <c r="D61" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:5">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
       <c r="C62"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:3">
-      <c r="A63"/>
-      <c r="B63"/>
+      <c r="D62" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
       <c r="C63"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:3">
-      <c r="A64"/>
-      <c r="B64"/>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:5">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
       <c r="C64"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:3">
-      <c r="A65"/>
-      <c r="B65"/>
+      <c r="D64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:5">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
       <c r="C65"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:3">
-      <c r="A66"/>
-      <c r="B66"/>
+      <c r="D65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:5">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
       <c r="C66"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:3">
-      <c r="A67"/>
-      <c r="B67"/>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:5">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
       <c r="C67"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:3">
-      <c r="A68"/>
-      <c r="B68"/>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:5">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
       <c r="C68"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:3">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:3">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:3">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:3">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:3">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:3">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:3">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:3">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:3">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:3">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:3">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:3">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:3">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:3">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:3">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:3">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:5">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:5">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:5">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:5">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:5">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:5">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:5">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:5">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:5">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:5">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:5">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:5">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:5">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D81">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26730" windowHeight="12540"/>
+    <workbookView windowWidth="26730" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">login!$D$1:$D$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">login!$D$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="206">
   <si>
     <t>is_test</t>
   </si>
@@ -150,194 +150,457 @@
     <t>/app/course/home</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>账户信息</t>
   </si>
   <si>
     <t>/app/account/info</t>
   </si>
   <si>
+    <t>路线列表</t>
+  </si>
+  <si>
     <t>/app/route/list</t>
   </si>
   <si>
-    <t>进入游戏前</t>
+    <t>我的好友列表</t>
   </si>
   <si>
     <t>app/friend/friendList</t>
   </si>
   <si>
+    <t>{"pageSize":10,"startTime":"1681192035000","activityType":0}</t>
+  </si>
+  <si>
     <t>课程列表页（训练场点击训练课程/TOP课程/发现课程）</t>
   </si>
   <si>
     <t>/app/course/list/v1</t>
   </si>
   <si>
+    <t>APP课程详情</t>
+  </si>
+  <si>
     <t>/app/course/info</t>
   </si>
   <si>
+    <t>{"courseId":1}</t>
+  </si>
+  <si>
+    <t>暴光展示页</t>
+  </si>
+  <si>
     <t>/app/exposure/page</t>
   </si>
   <si>
+    <t>用户参与课程</t>
+  </si>
+  <si>
     <t>/app/course/partake</t>
   </si>
   <si>
+    <t>课程动作列表</t>
+  </si>
+  <si>
     <t>/app/course/exerciseList</t>
   </si>
   <si>
+    <t>视频课程开始</t>
+  </si>
+  <si>
     <t>/app/course/start</t>
   </si>
   <si>
+    <t>从config中取配置</t>
+  </si>
+  <si>
     <t>/app/system/get/config</t>
   </si>
   <si>
+    <t>获取地址库信息</t>
+  </si>
+  <si>
     <t>/app/system/addressLib</t>
   </si>
   <si>
+    <t>保存个人信息</t>
+  </si>
+  <si>
     <t>/app/user/saveInfo</t>
   </si>
   <si>
+    <t>{"address":"","city":"Autauga","country":"America","firstName":"bym5","gender":0,"height":175,"invitationCode":"","lastName":"","state":"Alabama","weight":80.0}</t>
+  </si>
+  <si>
+    <t>关注</t>
+  </si>
+  <si>
     <t>/app/friend/add</t>
   </si>
   <si>
+    <t>{"friendId":345}</t>
+  </si>
+  <si>
+    <t>解关</t>
+  </si>
+  <si>
     <t>/app/friend/delete</t>
   </si>
   <si>
+    <t>搜索</t>
+  </si>
+  <si>
     <t>/app/user/search</t>
   </si>
   <si>
+    <t xml:space="preserve">{"pageSize":10,"searchName":"bym","startTime":"1681192035000","userIds":[329],"activityType":1}
+</t>
+  </si>
+  <si>
+    <t>其他用户我的页面</t>
+  </si>
+  <si>
     <t>/app/user/otherHomepage</t>
   </si>
   <si>
+    <t>附近的人</t>
+  </si>
+  <si>
     <t>/app/user/nearbyUser</t>
   </si>
   <si>
+    <t>粉丝列表</t>
+  </si>
+  <si>
     <t>/app/friend/fansList</t>
   </si>
   <si>
+    <t xml:space="preserve">{"pageSize":10,"pageNum":"1"}
+</t>
+  </si>
+  <si>
+    <t>首页弹窗</t>
+  </si>
+  <si>
     <t>/app/home/pop</t>
   </si>
   <si>
+    <t>{"email":"mtbsw2@126.com","appVersion":"206"}</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"type":1,"userId":345}</t>
+  </si>
+  <si>
+    <t>关注列表</t>
+  </si>
+  <si>
     <t>/app/friend/followList</t>
   </si>
   <si>
+    <t>{"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+  </si>
+  <si>
     <t>/h5/user/getInfo</t>
   </si>
   <si>
+    <t>用户经验值列表</t>
+  </si>
+  <si>
     <t>/h5/exp/user/list</t>
   </si>
   <si>
+    <t>{"email":343,"days":1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">经验值类型列表
+</t>
+  </si>
+  <si>
     <t>/h5/exp/home</t>
   </si>
   <si>
+    <t>券列表</t>
+  </si>
+  <si>
     <t>/app/userCoupon/list</t>
   </si>
   <si>
+    <t>{"pageNum":1,"pageSize":10,"status":0}</t>
+  </si>
+  <si>
+    <t>兑换券</t>
+  </si>
+  <si>
     <t>/app/userCoupon/exchange</t>
   </si>
   <si>
+    <t>{"exchangeCode":"V747"}</t>
+  </si>
+  <si>
+    <t>update  zns_user_coupon  set is_delete=1 where user_id = 343 and coupon_id = 5;</t>
+  </si>
+  <si>
+    <t>券使用-现金卷</t>
+  </si>
+  <si>
     <t>/app/userCoupon/useCoupon</t>
   </si>
   <si>
+    <t>{"userCouponId":524}</t>
+  </si>
+  <si>
+    <t>update zns_user_coupon set is_delete = 0 ,status = 0 ,gmt_use=NULL where id = 524</t>
+  </si>
+  <si>
+    <t>券使用-翻倍卷</t>
+  </si>
+  <si>
+    <t>{"userCouponId":525,"activityId":8865}</t>
+  </si>
+  <si>
+    <t>update zns_user_coupon set is_delete = 0 ,status = 0 ,gmt_use=NULL where id = 525</t>
+  </si>
+  <si>
+    <t>排行榜单</t>
+  </si>
+  <si>
     <t>/app/month/honour/weekData</t>
   </si>
   <si>
+    <t>{"userId":343}</t>
+  </si>
+  <si>
+    <t>兑换列表</t>
+  </si>
+  <si>
     <t>/app/month/honour/exchangeAward</t>
   </si>
   <si>
+    <t>兑换页面顶部</t>
+  </si>
+  <si>
     <t>/app/month/honour/exchangeTop</t>
   </si>
   <si>
+    <t>{"userId":343,"yearMonth":"2023-03"}</t>
+  </si>
+  <si>
+    <t>月度荣誉榜</t>
+  </si>
+  <si>
     <t>/app/month/honour/list</t>
   </si>
   <si>
+    <t>我的奖金new</t>
+  </si>
+  <si>
     <t>/app/meme/myAward</t>
   </si>
   <si>
+    <t>奖金池页面</t>
+  </si>
+  <si>
     <t>/h5/bonusPool/page</t>
   </si>
   <si>
+    <t>我的赛事记录</t>
+  </si>
+  <si>
     <t>/app/runActivity/myRecords</t>
   </si>
   <si>
-    <t>获取日期</t>
+    <t>{"pageSize":10,"activityType":1}</t>
+  </si>
+  <si>
+    <t>日历获取是否有活动</t>
   </si>
   <si>
     <t>/app/runActivity/activityParticipation</t>
   </si>
   <si>
-    <t>获取某日比赛</t>
+    <t>{"startTime":"2022-05-09","endTime":"2022-06-10"}</t>
+  </si>
+  <si>
+    <t>我的参赛纪录--当日</t>
   </si>
   <si>
     <t>/app/runActivity/myDayRecords</t>
   </si>
   <si>
-    <t>里程查看</t>
+    <t>{"date":"2022-11-18"}</t>
+  </si>
+  <si>
+    <t>运动记录2.0.0-周</t>
   </si>
   <si>
     <t>/app/runData/runningRecord</t>
   </si>
   <si>
-    <t>跑步数据列表</t>
+    <t>{"statisticsType":0,"startTime":"1681192035000","endTime":"1681192035000"}</t>
+  </si>
+  <si>
+    <t>运动记录2.0.0-月</t>
+  </si>
+  <si>
+    <t>{"statisticsType":1,"startTime":"1681192035000","endTime":"1681192035000","year":2023,"month":4}</t>
+  </si>
+  <si>
+    <t>运动记录列表2.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">/app/runData/runningRecordList </t>
   </si>
   <si>
-    <t>跑步数据分享</t>
+    <t>{"pageSize":1,"pageNum":10}</t>
+  </si>
+  <si>
+    <t>运动数据分享获取</t>
   </si>
   <si>
     <t>/app/runData/getShareData</t>
   </si>
   <si>
+    <t>{"runType":1}</t>
+  </si>
+  <si>
+    <t>app勋章列表</t>
+  </si>
+  <si>
     <t>/h5/medal/list</t>
   </si>
   <si>
+    <t>更新用户勋章位置</t>
+  </si>
+  <si>
     <t>/h5/medal/pos</t>
   </si>
   <si>
+    <t>{"email":"mtbsw5@126.com"}</t>
+  </si>
+  <si>
+    <t>{"data":[{"id":76,"pos":1},{"id":80,"pos":2},{"id":82,"pos":3},{"id":81,"pos":4},{"id":83,"pos":5},{"id":90,"pos":6}],"email":"mtbsw5@126.com"}</t>
+  </si>
+  <si>
+    <t>发起充值</t>
+  </si>
+  <si>
     <t>/app/pay/initiatePayment</t>
   </si>
   <si>
+    <t>{"amount":0.1}</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
     <t>/app/pay/cash</t>
   </si>
   <si>
+    <t>payPassword</t>
+  </si>
+  <si>
+    <t>{"amount":10,"payPassword":"111111"}</t>
+  </si>
+  <si>
+    <t>h5商品列表</t>
+  </si>
+  <si>
     <t>/h5/goods/list</t>
   </si>
   <si>
+    <t>h5下单</t>
+  </si>
+  <si>
+    <t>/h5/order/generateOrder</t>
+  </si>
+  <si>
+    <t>{"addressId":30,"count":1,"goodsId":7,"skuId":57}</t>
+  </si>
+  <si>
+    <t>h5发起支付</t>
+  </si>
+  <si>
     <t>/h5/pay/payOrder</t>
   </si>
   <si>
+    <t>{"orderId":262}</t>
+  </si>
+  <si>
+    <t>推广中心</t>
+  </si>
+  <si>
     <t>/h5/distribution/promotionCenter</t>
   </si>
   <si>
+    <t>推广中心-我的推广</t>
+  </si>
+  <si>
     <t>/h5/distribution/promotionCenterList</t>
   </si>
   <si>
+    <t>{"email":"mtbsw4@126.com"}</t>
+  </si>
+  <si>
+    <t>聊天机器人第一句问候语</t>
+  </si>
+  <si>
     <t>/app/system/contactusMessage</t>
   </si>
   <si>
+    <t>{"fromUserId":"9876","toUserId":345}</t>
+  </si>
+  <si>
+    <t>h5订单列表-全部</t>
+  </si>
+  <si>
     <t>/h5/order/list</t>
   </si>
   <si>
+    <t>h5订单详情</t>
+  </si>
+  <si>
     <t>/h5/order/orderInfo</t>
   </si>
   <si>
+    <t>问题列表</t>
+  </si>
+  <si>
     <t>/h5/helpCenter/qaList</t>
   </si>
   <si>
+    <t>用户反馈</t>
+  </si>
+  <si>
     <t>/app/user/feedback</t>
   </si>
   <si>
+    <t>{"address":"","city":"","emailAddress":"","firstName":"","modelNumber":"","phoneNumber":"","problemDesc":"测试反馈","purchaseDate":0,"purchaseLocation":"","serialNumber":"","state":"","zipCode":""}</t>
+  </si>
+  <si>
     <t>/h5/helpCenter/question/list</t>
   </si>
   <si>
+    <t>非官方多人同跑列表页-优化</t>
+  </si>
+  <si>
     <t>/app/runActivity/getTeamActivity</t>
   </si>
   <si>
+    <t>开始智能匹配</t>
+  </si>
+  <si>
+    <t>/app/mind/match</t>
+  </si>
+  <si>
+    <t>{"matchType":1,"targetMileage":1000,"userId":345}</t>
+  </si>
+  <si>
     <t>/app/mind/cancel/match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/app/mind/match
-</t>
   </si>
   <si>
     <t>/app/friend/friendList</t>
@@ -1390,12 +1653,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -1584,6 +1847,9 @@
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1593,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -1604,903 +1870,1589 @@
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
+      <c r="H16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="C17"/>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
+      <c r="H17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:11">
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="56" customHeight="1" spans="1:11">
       <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:5">
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:5">
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:5">
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:5">
+      <c r="H24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="94" customHeight="1" spans="1:11">
       <c r="A25" s="1">
         <v>1</v>
       </c>
-      <c r="C25"/>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:5">
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="C26"/>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:5">
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:5">
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:5">
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="C29"/>
+      <c r="C29" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:5">
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:11">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:5">
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" ht="98" customHeight="1" spans="1:11">
       <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="C31"/>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="193" customHeight="1" spans="1:11">
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="C32"/>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33"/>
+      <c r="F32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="119" customHeight="1" spans="3:11">
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:5">
+      <c r="F33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="C34"/>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:5">
+      <c r="F34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="C35"/>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:5">
+      <c r="H35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:11">
       <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:5">
+      <c r="F36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:11">
       <c r="A37" s="1">
         <v>1</v>
       </c>
-      <c r="C37"/>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:5">
+      <c r="F37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:11">
       <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:5">
+      <c r="F38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:11">
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:5">
+      <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:11">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:5">
+      <c r="F40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:11">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:5">
+      <c r="F41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:11">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:5">
+      <c r="H42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:11">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
+      <c r="H43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="70" customHeight="1" spans="3:11">
       <c r="C44" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:5">
+      <c r="H44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:11">
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="C45"/>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:5">
+      <c r="H45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:11">
       <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="C46"/>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:5">
+      <c r="H46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:11">
       <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="C47"/>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:5">
+      <c r="H47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:11">
       <c r="A48" s="1">
         <v>1</v>
       </c>
-      <c r="C48"/>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:5">
+      <c r="F48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:11">
       <c r="A49" s="1">
         <v>1</v>
       </c>
-      <c r="C49"/>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:5">
+      <c r="H49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:11">
       <c r="A50" s="1">
         <v>1</v>
       </c>
-      <c r="C50"/>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:5">
+      <c r="F50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:11">
       <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="C51"/>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:5">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52"/>
+      <c r="H51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:11">
+      <c r="C52" t="s">
+        <v>156</v>
+      </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:5">
+      <c r="H52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:11">
       <c r="A53" s="1">
         <v>1</v>
       </c>
-      <c r="C53"/>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:5">
+      <c r="H53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:11">
       <c r="A54" s="1">
         <v>1</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:5">
+      <c r="H54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:11">
       <c r="A55" s="1">
         <v>1</v>
       </c>
-      <c r="C55"/>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:5">
+      <c r="F55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:11">
       <c r="A56" s="1">
         <v>1</v>
       </c>
-      <c r="C56"/>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:5">
+      <c r="F56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:11">
       <c r="A57" s="1">
         <v>1</v>
       </c>
-      <c r="C57"/>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:5">
+      <c r="H57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:11">
       <c r="A58" s="1">
         <v>1</v>
       </c>
-      <c r="C58"/>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:5">
+      <c r="H58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:11">
       <c r="A59" s="1">
         <v>1</v>
       </c>
-      <c r="C59"/>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:5">
+      <c r="H59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="70" customHeight="1" spans="1:11">
       <c r="A60" s="1">
         <v>1</v>
       </c>
-      <c r="C60"/>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:5">
+      <c r="H60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" ht="74" customHeight="1" spans="1:11">
       <c r="A61" s="1">
         <v>1</v>
       </c>
-      <c r="C61"/>
-      <c r="D61" s="5" t="s">
-        <v>98</v>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:5">
+      <c r="H61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:11">
       <c r="A62" s="1">
         <v>1</v>
       </c>
-      <c r="C62"/>
+      <c r="C62" t="s">
+        <v>180</v>
+      </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:5">
+      <c r="H62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:11">
       <c r="A63" s="1">
         <v>1</v>
       </c>
-      <c r="C63"/>
-      <c r="D63" t="s">
-        <v>100</v>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:5">
+      <c r="H63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:11">
       <c r="A64" s="1">
         <v>1</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:5">
+      <c r="H64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:11">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:5">
+      <c r="H65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:11">
       <c r="A66" s="1">
         <v>1</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:5">
+      <c r="H66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:11">
       <c r="A67" s="1">
         <v>1</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:5">
+      <c r="H67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:11">
       <c r="A68" s="1">
         <v>1</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:5">
+      <c r="H68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:11">
       <c r="A69" s="1">
         <v>1</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>106</v>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>190</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:5">
+      <c r="H69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:11">
       <c r="A70" s="1">
         <v>1</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>107</v>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>191</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:5">
+      <c r="H70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:11">
       <c r="A71" s="1">
         <v>1</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>108</v>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>192</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:5">
+      <c r="H71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:11">
       <c r="A72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:5">
+      <c r="H72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:11">
       <c r="A73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:5">
+      <c r="H73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:11">
       <c r="A74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:5">
+      <c r="H74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:11">
       <c r="A75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:5">
+      <c r="H75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:11">
       <c r="A76" s="1">
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:5">
+      <c r="H76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:11">
       <c r="A77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:5">
+      <c r="H77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:11">
       <c r="A78" s="1">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:5">
+      <c r="H78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:11">
       <c r="A79" s="1">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:5">
+      <c r="H79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:11">
       <c r="A80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:5">
+      <c r="H80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:11">
       <c r="A81" s="1">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:11">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:11">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:11">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D81">
+  <autoFilter ref="D1:D84">
     <extLst/>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C63" r:id="rId1" display="开始智能匹配" tooltip="http://kjdoc.yijiesudai.com/pages/viewpage.action?pageId=29262275"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -10,14 +10,14 @@
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">login!$D$1:$D$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">login!$D$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="259">
   <si>
     <t>is_test</t>
   </si>
@@ -25,7 +25,7 @@
     <t>test_model</t>
   </si>
   <si>
-    <t>test_case_name</t>
+    <t>活动帮助--我有疑问</t>
   </si>
   <si>
     <t>route</t>
@@ -97,6 +97,9 @@
     <t>"code":"998"</t>
   </si>
   <si>
+    <t>活动</t>
+  </si>
+  <si>
     <t>开始跑</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">{"activityId":52556,"courseId":0,"data":[{"calories":32,"gradient":0,"heartRate":0,"mileage":397,"runTime":119917,"stepNum":0,"velocity":20000},{"calories":33,"gradient":0,"heartRate":0,"mileage":402,"runTime":120917,"stepNum":0,"velocity":20000},{"calories":33,"gradient":0,"heartRate":0,"mileage":408,"runTime":121917,"stepNum":0,"velocity":20000},{"calories":34,"gradient":0,"heartRate":0,"mileage":414,"runTime":122917,"stepNum":0,"velocity":20000},{"calories":34,"gradient":0,"heartRate":0,"mileage":419,"runTime":123917,"stepNum":0,"velocity":20000},{"calories":35,"gradient":0,"heartRate":0,"mileage":425,"runTime":124917,"stepNum":0,"velocity":20000},{"calories":35,"gradient":0,"heartRate":0,"mileage":430,"runTime":125917,"stepNum":0,"velocity":20000},{"calories":36,"gradient":0,"heartRate":0,"mileage":436,"runTime":126917,"stepNum":0,"velocity":20000},{"calories":36,"gradient":0,"heartRate":0,"mileage":441,"runTime":127917,"stepNum":0,"velocity":20000},{"calories":37,"gradient":0,"heartRate":0,"mileage":447,"runTime":128917,"stepNum":0,"velocity":20000},{"calories":37,"gradient":0,"heartRate":0,"mileage":452,"runTime":129917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":458,"runTime":130917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":464,"runTime":131917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":469,"runTime":132917,"stepNum":0,"velocity":20000},{"calories":39,"gradient":0,"heartRate":0,"mileage":475,"runTime":133917,"stepNum":0,"velocity":20000},{"calories":39,"gradient":0,"heartRate":0,"mileage":480,"runTime":134917,"stepNum":0,"velocity":20000},{"calories":40,"gradient":0,"heartRate":0,"mileage":486,"runTime":135917,"stepNum":0,"velocity":20000},{"calories":40,"gradient":0,"heartRate":0,"mileage":491,"runTime":136917,"stepNum":0,"velocity":20000},{"calories":41,"gradient":0,"heartRate":0,"mileage":497,"runTime":137917,"stepNum":0,"velocity":20000},{"calories":41,"gradient":0,"heartRate":0,"mileage":502,"runTime":138917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":508,"runTime":139917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":514,"runTime":140917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":514,"runTime":141717,"stepNum":0,"velocity":0}],"distanceTarget":1000,"firmwareVersion":23,"id_no":330,"order_no":133,"routeId":401,"run_status":1,"taskId":0,"timeTarget":0,"unique_code":"MQmq58CF791677A\u0000"} </t>
+  </si>
+  <si>
+    <t>课程</t>
   </si>
   <si>
     <r>
@@ -153,6 +159,9 @@
     <t>{}</t>
   </si>
   <si>
+    <t>我的</t>
+  </si>
+  <si>
     <t>账户信息</t>
   </si>
   <si>
@@ -168,7 +177,7 @@
     <t>我的好友列表</t>
   </si>
   <si>
-    <t>app/friend/friendList</t>
+    <t>/app/friend/friendList</t>
   </si>
   <si>
     <t>{"pageSize":10,"startTime":"1681192035000","activityType":0}</t>
@@ -217,6 +226,9 @@
   </si>
   <si>
     <t>/app/system/get/config</t>
+  </si>
+  <si>
+    <t>{"configKey":"equipment.config"}</t>
   </si>
   <si>
     <t>获取地址库信息</t>
@@ -281,6 +293,9 @@
 </t>
   </si>
   <si>
+    <t>首页</t>
+  </si>
+  <si>
     <t>首页弹窗</t>
   </si>
   <si>
@@ -342,7 +357,7 @@
     <t>{"exchangeCode":"V747"}</t>
   </si>
   <si>
-    <t>update  zns_user_coupon  set is_delete=1 where user_id = 343 and coupon_id = 5;</t>
+    <t>update  zns_user_coupon  set is_delete=1 where user_id = 343 and coupon_id = 5</t>
   </si>
   <si>
     <t>券使用-现金卷</t>
@@ -486,6 +501,9 @@
     <t>{"data":[{"id":76,"pos":1},{"id":80,"pos":2},{"id":82,"pos":3},{"id":81,"pos":4},{"id":83,"pos":5},{"id":90,"pos":6}],"email":"mtbsw5@126.com"}</t>
   </si>
   <si>
+    <t>"code":200</t>
+  </si>
+  <si>
     <t>发起充值</t>
   </si>
   <si>
@@ -507,6 +525,9 @@
     <t>{"amount":10,"payPassword":"111111"}</t>
   </si>
   <si>
+    <t>h5商城</t>
+  </si>
+  <si>
     <t>h5商品列表</t>
   </si>
   <si>
@@ -531,6 +552,13 @@
     <t>{"orderId":262}</t>
   </si>
   <si>
+    <t xml:space="preserve">update zns_order set   gmt_pay_end = DATE_ADD(NOW(),INTERVAL 1 DAY) where id = 262;
+</t>
+  </si>
+  <si>
+    <t>h5推广中心</t>
+  </si>
+  <si>
     <t>推广中心</t>
   </si>
   <si>
@@ -546,6 +574,9 @@
     <t>{"email":"mtbsw4@126.com"}</t>
   </si>
   <si>
+    <t>客服</t>
+  </si>
+  <si>
     <t>聊天机器人第一句问候语</t>
   </si>
   <si>
@@ -600,67 +631,197 @@
     <t>{"matchType":1,"targetMileage":1000,"userId":345}</t>
   </si>
   <si>
+    <t>取消匹配</t>
+  </si>
+  <si>
     <t>/app/mind/cancel/match</t>
   </si>
   <si>
-    <t>/app/friend/friendList</t>
+    <t>"code":"998","msg":"已经取消过了"</t>
+  </si>
+  <si>
+    <t>{"pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>好友对战跑请求地址-免费</t>
   </si>
   <si>
     <t>/app/mind/friend/match/new</t>
   </si>
   <si>
+    <t>{"activityEntryFee":0,"matchFriendId":82511,"password":"","runMileage":1600,"userId":345}</t>
+  </si>
+  <si>
+    <t>好友对战跑请求地址-付费</t>
+  </si>
+  <si>
+    <t>{"activityEntryFee":1,"matchFriendId":82511,"password":"111111","runMileage":1600,"userId":345}</t>
+  </si>
+  <si>
+    <t>路线详情</t>
+  </si>
+  <si>
     <t>/app/runActivity/routeDetail</t>
   </si>
   <si>
+    <t>获取活动状态</t>
+  </si>
+  <si>
     <t>/app/runActivity/getActivityState</t>
   </si>
   <si>
+    <t>{"activityId":53182}</t>
+  </si>
+  <si>
+    <t>用户进入游戏后上报用户状态</t>
+  </si>
+  <si>
     <t>/app/runActivity/reportUserRunStatus</t>
   </si>
   <si>
+    <t>{"activityId":53182,"status":3}</t>
+  </si>
+  <si>
+    <t>update zns_run_activity_user set user_state=1 where id =1268624</t>
+  </si>
+  <si>
+    <t>select user_state from zns_run_activity_user where id = 1268624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彩蛋配置列表
+</t>
+  </si>
+  <si>
     <t>/app/account/colorEggConfig</t>
   </si>
   <si>
+    <t>获取系统资源配置</t>
+  </si>
+  <si>
     <t>/app/system/getResourceConfig</t>
   </si>
   <si>
+    <t>{"resourceKey":"treadmill.register.dingding.notification"}</t>
+  </si>
+  <si>
+    <t>获取系统配置</t>
+  </si>
+  <si>
     <t>/h5/system/config</t>
   </si>
   <si>
+    <t>发送注册验证码</t>
+  </si>
+  <si>
     <t>/app/user/sendVerificationCode</t>
   </si>
   <si>
+    <t>{"emailAddress":"mtbsw54321@126.com"}</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
     <t>/app/user/register</t>
   </si>
   <si>
+    <t>{"address":"","city":"","country":"","emailAddress":"mtbsw20@126.com","firstName":"bym20","invitationCode":"","lastName":"","password":"Mtbsw54321","state":"","verificationCode":"888888"}</t>
+  </si>
+  <si>
+    <t>update zns_user set is_delete = 1 where email_address = 'mtbsw20@126.com'</t>
+  </si>
+  <si>
+    <t>首页V2</t>
+  </si>
+  <si>
     <t>/app/homePage/v2</t>
   </si>
   <si>
+    <t>我的赛事-待参与-优化</t>
+  </si>
+  <si>
     <t>/app/runActivity/getMyActivity</t>
   </si>
   <si>
+    <t>用户取消/接受/拒绝 跑步活动前检查</t>
+  </si>
+  <si>
     <t>/app/runActivity/checkHandleActivity</t>
   </si>
   <si>
+    <t>{"activityId":53273,"userStatus":1}</t>
+  </si>
+  <si>
+    <t>update zns_run_activity_user set user_state=1 where id =1268626</t>
+  </si>
+  <si>
+    <t>活动配置获取</t>
+  </si>
+  <si>
     <t>/app/runActivity/activityPage</t>
   </si>
   <si>
+    <t>{"activityConfigId":1}</t>
+  </si>
+  <si>
+    <t>发起跑步活动</t>
+  </si>
+  <si>
     <t>/app/runActivity/launchActivity</t>
   </si>
   <si>
+    <t>{"activityConfigId":1,"activityEntryFee":0,"activityEquipmentConfigs":[{"equipmentInfo":"AS01Z","type":2}],"activityRouteId":101,"activityStartTime":1681373760000,"activityUserIds":[345,331],"bonusRuleType":1,"completeRuleType":1,"isPublic":0,"password":"","robotAcceptSuccess":1,"runMileage":1000}</t>
+  </si>
+  <si>
+    <t>组队跑活动邀请更多好友</t>
+  </si>
+  <si>
     <t>/app/runActivity/inviteRunner</t>
   </si>
   <si>
+    <t>{"activityId":53274,"activityUserIds":[343]}</t>
+  </si>
+  <si>
+    <t>用户取消/接受/拒绝 活动-免费</t>
+  </si>
+  <si>
     <t>/app/runActivity/handleActivity</t>
   </si>
   <si>
+    <t>update zns_run_activity_user set user_state=0 where id =1268626</t>
+  </si>
+  <si>
+    <t>select user_state from zns_run_activity_user where id = 1268626</t>
+  </si>
+  <si>
+    <t>用户取消/接受/拒绝 活动-付费</t>
+  </si>
+  <si>
+    <t>{"activityId":53170,"pageNum":1,"pageSize":10,"password":"96e79218965eb72c92a549dd5a330112","runningGoals":500,"taskId":0,"userStatus":1}</t>
+  </si>
+  <si>
+    <t>用户进入活动跑道前判断</t>
+  </si>
+  <si>
     <t>/app/runActivity/checkReportUserRun</t>
   </si>
   <si>
+    <t>活动详情页</t>
+  </si>
+  <si>
     <t>/app/runActivity/activityDetail</t>
   </si>
   <si>
+    <t>{"activityId":53171,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>活动详情页-用户信息</t>
+  </si>
+  <si>
     <t>/app/runActivity/activityUser</t>
+  </si>
+  <si>
+    <t>{"activityId":53171,"activityUserStatus":0,"pageNum":1,"pageSize":20}</t>
   </si>
 </sst>
 </file>
@@ -673,13 +834,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -836,12 +1003,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1144,10 +1317,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,36 +1329,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,98 +1365,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,13 +1469,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1653,12 +1835,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -1671,7 +1853,7 @@
     <col min="6" max="6" width="12.0583333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.7833333333333" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="21.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="27.125" style="2" customWidth="1"/>
@@ -1687,7 +1869,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1726,7 +1908,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1761,7 +1943,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1787,22 +1969,25 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>20</v>
@@ -1810,22 +1995,25 @@
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:11">
       <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>20</v>
@@ -1833,22 +2021,25 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
@@ -1856,22 +2047,25 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>20</v>
@@ -1879,19 +2073,22 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>20</v>
@@ -1899,19 +2096,22 @@
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>20</v>
@@ -1919,19 +2119,25 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>20</v>
@@ -1939,19 +2145,22 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>20</v>
@@ -1959,19 +2168,22 @@
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>20</v>
@@ -1979,22 +2191,25 @@
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>20</v>
@@ -2002,19 +2217,22 @@
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>20</v>
@@ -2022,19 +2240,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>20</v>
@@ -2042,19 +2263,22 @@
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>20</v>
@@ -2062,19 +2286,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
@@ -2082,22 +2309,25 @@
     </row>
     <row r="18" customHeight="1" spans="1:11">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>20</v>
@@ -2105,22 +2335,25 @@
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>20</v>
@@ -2128,22 +2361,25 @@
     </row>
     <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>20</v>
@@ -2151,22 +2387,25 @@
     </row>
     <row r="21" ht="56" customHeight="1" spans="1:11">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
@@ -2174,22 +2413,25 @@
     </row>
     <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>20</v>
@@ -2197,22 +2439,25 @@
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>20</v>
@@ -2220,19 +2465,22 @@
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>20</v>
@@ -2240,22 +2488,25 @@
     </row>
     <row r="25" ht="94" customHeight="1" spans="1:11">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>20</v>
@@ -2263,22 +2514,25 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>20</v>
@@ -2286,22 +2540,25 @@
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>20</v>
@@ -2309,22 +2566,25 @@
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>20</v>
@@ -2332,22 +2592,25 @@
     </row>
     <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>91</v>
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>20</v>
@@ -2355,22 +2618,25 @@
     </row>
     <row r="30" customHeight="1" spans="1:11">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>20</v>
@@ -2378,25 +2644,28 @@
     </row>
     <row r="31" ht="98" customHeight="1" spans="1:11">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
@@ -2404,48 +2673,57 @@
     </row>
     <row r="32" ht="193" customHeight="1" spans="1:11">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="119" customHeight="1" spans="3:11">
+    <row r="33" ht="119" customHeight="1" spans="1:11">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>20</v>
@@ -2453,22 +2731,25 @@
     </row>
     <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>20</v>
@@ -2476,19 +2757,22 @@
     </row>
     <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>20</v>
@@ -2496,22 +2780,25 @@
     </row>
     <row r="36" customHeight="1" spans="1:11">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>20</v>
@@ -2519,22 +2806,25 @@
     </row>
     <row r="37" customHeight="1" spans="1:11">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>20</v>
@@ -2542,22 +2832,25 @@
     </row>
     <row r="38" customHeight="1" spans="1:11">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>20</v>
@@ -2565,22 +2858,25 @@
     </row>
     <row r="39" customHeight="1" spans="1:11">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>20</v>
@@ -2588,22 +2884,25 @@
     </row>
     <row r="40" customHeight="1" spans="1:11">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>20</v>
@@ -2611,22 +2910,25 @@
     </row>
     <row r="41" customHeight="1" spans="1:11">
       <c r="A41" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>20</v>
@@ -2634,19 +2936,22 @@
     </row>
     <row r="42" customHeight="1" spans="1:11">
       <c r="A42" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>20</v>
@@ -2654,36 +2959,45 @@
     </row>
     <row r="43" customHeight="1" spans="1:11">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" ht="70" customHeight="1" spans="3:11">
+    <row r="44" ht="70" customHeight="1" spans="1:11">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>20</v>
@@ -2691,19 +3005,22 @@
     </row>
     <row r="45" customHeight="1" spans="1:11">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>20</v>
@@ -2711,19 +3028,22 @@
     </row>
     <row r="46" customHeight="1" spans="1:11">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>20</v>
@@ -2731,19 +3051,22 @@
     </row>
     <row r="47" customHeight="1" spans="1:11">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>20</v>
@@ -2751,42 +3074,48 @@
     </row>
     <row r="48" customHeight="1" spans="1:11">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:11">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>20</v>
@@ -2794,25 +3123,28 @@
     </row>
     <row r="50" customHeight="1" spans="1:11">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>20</v>
@@ -2820,56 +3152,71 @@
     </row>
     <row r="51" customHeight="1" spans="1:11">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="3:11">
+    <row r="52" customHeight="1" spans="1:11">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:11">
+    <row r="53" ht="46" customHeight="1" spans="1:11">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>20</v>
@@ -2877,19 +3224,22 @@
     </row>
     <row r="54" customHeight="1" spans="1:11">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>20</v>
@@ -2897,22 +3247,25 @@
     </row>
     <row r="55" customHeight="1" spans="1:11">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>20</v>
@@ -2920,22 +3273,25 @@
     </row>
     <row r="56" customHeight="1" spans="1:11">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>20</v>
@@ -2943,19 +3299,22 @@
     </row>
     <row r="57" customHeight="1" spans="1:11">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>20</v>
@@ -2963,19 +3322,22 @@
     </row>
     <row r="58" customHeight="1" spans="1:11">
       <c r="A58" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>20</v>
@@ -2983,19 +3345,22 @@
     </row>
     <row r="59" customHeight="1" spans="1:11">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>20</v>
@@ -3003,19 +3368,22 @@
     </row>
     <row r="60" ht="70" customHeight="1" spans="1:11">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>20</v>
@@ -3023,19 +3391,22 @@
     </row>
     <row r="61" ht="74" customHeight="1" spans="1:11">
       <c r="A61" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>20</v>
@@ -3043,19 +3414,22 @@
     </row>
     <row r="62" customHeight="1" spans="1:11">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>20</v>
@@ -3063,19 +3437,22 @@
     </row>
     <row r="63" customHeight="1" spans="1:11">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>20</v>
@@ -3083,71 +3460,94 @@
     </row>
     <row r="64" customHeight="1" spans="1:11">
       <c r="A64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64"/>
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="D64" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" ht="63" customHeight="1" spans="1:11">
       <c r="A65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65"/>
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
       <c r="D65" t="s">
-        <v>186</v>
-      </c>
-      <c r="E65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:11">
+    <row r="66" ht="54" spans="1:11">
       <c r="A66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66"/>
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
       <c r="D66" t="s">
-        <v>187</v>
-      </c>
-      <c r="E66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:11">
+    <row r="67" ht="54" spans="1:11">
       <c r="A67" s="1">
-        <v>1</v>
-      </c>
-      <c r="C67"/>
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>202</v>
+      </c>
       <c r="D67" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>17</v>
+        <v>200</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>20</v>
@@ -3155,17 +3555,22 @@
     </row>
     <row r="68" customHeight="1" spans="1:11">
       <c r="A68" s="1">
-        <v>1</v>
-      </c>
-      <c r="C68"/>
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
       <c r="D68" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>20</v>
@@ -3173,53 +3578,77 @@
     </row>
     <row r="69" customHeight="1" spans="1:11">
       <c r="A69" s="1">
-        <v>1</v>
-      </c>
-      <c r="C69"/>
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
       <c r="D69" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:11">
+    <row r="70" customHeight="1" spans="1:13">
       <c r="A70" s="1">
-        <v>1</v>
-      </c>
-      <c r="C70"/>
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>209</v>
+      </c>
       <c r="D70" t="s">
-        <v>191</v>
-      </c>
-      <c r="E70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>36</v>
+        <v>211</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M70" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:11">
       <c r="A71" s="1">
-        <v>1</v>
-      </c>
-      <c r="C71"/>
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="D71" t="s">
-        <v>192</v>
-      </c>
-      <c r="E71" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>20</v>
@@ -3227,16 +3656,22 @@
     </row>
     <row r="72" customHeight="1" spans="1:11">
       <c r="A72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>20</v>
@@ -3244,16 +3679,22 @@
     </row>
     <row r="73" customHeight="1" spans="1:11">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E73" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>20</v>
@@ -3261,33 +3702,48 @@
     </row>
     <row r="74" customHeight="1" spans="1:11">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E74" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:11">
+    <row r="75" ht="94.5" spans="1:11">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E75" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>36</v>
+        <v>226</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>20</v>
@@ -3295,16 +3751,22 @@
     </row>
     <row r="76" customHeight="1" spans="1:11">
       <c r="A76" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E76" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>20</v>
@@ -3312,33 +3774,48 @@
     </row>
     <row r="77" customHeight="1" spans="1:11">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E77" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:11">
+    <row r="78" ht="58" customHeight="1" spans="1:11">
       <c r="A78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>36</v>
+        <v>234</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>20</v>
@@ -3346,33 +3823,48 @@
     </row>
     <row r="79" customHeight="1" spans="1:11">
       <c r="A79" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:11">
+    <row r="80" ht="70" customHeight="1" spans="1:11">
       <c r="A80" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>17</v>
+        <v>240</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>20</v>
@@ -3380,78 +3872,155 @@
     </row>
     <row r="81" customHeight="1" spans="1:11">
       <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:13">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M82" s="2">
         <v>1</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:11">
-      <c r="A82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:11">
+    </row>
+    <row r="83" ht="115" customHeight="1" spans="1:8">
       <c r="A83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:11">
       <c r="A84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="85" customHeight="1" spans="1:11">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:11">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D84">
+  <autoFilter ref="D1:D86">
     <extLst/>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="C63" r:id="rId1" display="开始智能匹配" tooltip="http://kjdoc.yijiesudai.com/pages/viewpage.action?pageId=29262275"/>
+    <hyperlink ref="C1" r:id="rId2" display="活动帮助--我有疑问" tooltip="http://kjdoc.yijiesudai.com/pages/viewpage.action?pageId=47612014"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="263">
   <si>
     <t>is_test</t>
   </si>
@@ -25,7 +25,7 @@
     <t>test_model</t>
   </si>
   <si>
-    <t>活动帮助--我有疑问</t>
+    <t>test_case_name</t>
   </si>
   <si>
     <t>route</t>
@@ -243,7 +243,7 @@
     <t>/app/user/saveInfo</t>
   </si>
   <si>
-    <t>{"address":"","city":"Autauga","country":"America","firstName":"bym5","gender":0,"height":175,"invitationCode":"","lastName":"","state":"Alabama","weight":80.0}</t>
+    <t>{"address":"","city":"Autauga","country":"America","firstName":"bym2","gender":0,"height":175,"invitationCode":"","lastName":"","state":"Alabama","weight":80.0}</t>
   </si>
   <si>
     <t>关注</t>
@@ -378,7 +378,7 @@
     <t>{"userCouponId":525,"activityId":8865}</t>
   </si>
   <si>
-    <t>update zns_user_coupon set is_delete = 0 ,status = 0 ,gmt_use=NULL where id = 525</t>
+    <t>update zns_user_coupon set is_delete = 0 ,status = 0 ,gmt_use=NULL ,activity_id = NULL where id = 525</t>
   </si>
   <si>
     <t>排行榜单</t>
@@ -719,16 +719,19 @@
     <t>{"emailAddress":"mtbsw54321@126.com"}</t>
   </si>
   <si>
+    <t>update zns_user_email_sending_record set is_delete= 1 where email_address = 'mtbsw54321@126.com'</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
     <t>/app/user/register</t>
   </si>
   <si>
-    <t>{"address":"","city":"","country":"","emailAddress":"mtbsw20@126.com","firstName":"bym20","invitationCode":"","lastName":"","password":"Mtbsw54321","state":"","verificationCode":"888888"}</t>
-  </si>
-  <si>
-    <t>update zns_user set is_delete = 1 where email_address = 'mtbsw20@126.com'</t>
+    <t>{"address":"","city":"","country":"","emailAddress":"mtbsw54321@126.com","firstName":"bym54321","invitationCode":"","lastName":"","password":"Mtbsw54321","state":"","verificationCode":"888888"}</t>
+  </si>
+  <si>
+    <t>update zns_user set is_delete = 1 where email_address = 'mtbsw54321@126.com'</t>
   </si>
   <si>
     <t>首页V2</t>
@@ -749,10 +752,10 @@
     <t>/app/runActivity/checkHandleActivity</t>
   </si>
   <si>
-    <t>{"activityId":53273,"userStatus":1}</t>
-  </si>
-  <si>
-    <t>update zns_run_activity_user set user_state=1 where id =1268626</t>
+    <t>{"activityId":53298,"userStatus":1}</t>
+  </si>
+  <si>
+    <t>update zns_run_activity_user set is_delete = 1 where activity_id = 53298 and user_id = 343::update zns_run_activity set activity_state = 0 where id = 53298</t>
   </si>
   <si>
     <t>活动配置获取</t>
@@ -770,7 +773,7 @@
     <t>/app/runActivity/launchActivity</t>
   </si>
   <si>
-    <t>{"activityConfigId":1,"activityEntryFee":0,"activityEquipmentConfigs":[{"equipmentInfo":"AS01Z","type":2}],"activityRouteId":101,"activityStartTime":1681373760000,"activityUserIds":[345,331],"bonusRuleType":1,"completeRuleType":1,"isPublic":0,"password":"","robotAcceptSuccess":1,"runMileage":1000}</t>
+    <t>{"activityConfigId":1,"activityEntryFee":0,"activityEquipmentConfigs":[{"equipmentInfo":"AS01Z","type":2}],"activityRouteId":101,"activityStartTime":19023619320000,"activityUserIds":[345,331],"bonusRuleType":1,"completeRuleType":1,"isPublic":0,"password":"","robotAcceptSuccess":1,"runMileage":1000}</t>
   </si>
   <si>
     <t>组队跑活动邀请更多好友</t>
@@ -788,7 +791,7 @@
     <t>/app/runActivity/handleActivity</t>
   </si>
   <si>
-    <t>update zns_run_activity_user set user_state=0 where id =1268626</t>
+    <t>update zns_run_activity_user set is_delete = 1 where activity_id = 53298 and user_id = 343</t>
   </si>
   <si>
     <t>select user_state from zns_run_activity_user where id = 1268626</t>
@@ -797,13 +800,22 @@
     <t>用户取消/接受/拒绝 活动-付费</t>
   </si>
   <si>
-    <t>{"activityId":53170,"pageNum":1,"pageSize":10,"password":"96e79218965eb72c92a549dd5a330112","runningGoals":500,"taskId":0,"userStatus":1}</t>
+    <t>{"activityId":53170,"pageNum":1,"pageSize":10,"password":"111111","runningGoals":500,"taskId":0,"userStatus":1}</t>
+  </si>
+  <si>
+    <t>update zns_run_activity_user set is_delete=1 where activity_id = 53170 and user_id = 343</t>
   </si>
   <si>
     <t>用户进入活动跑道前判断</t>
   </si>
   <si>
     <t>/app/runActivity/checkReportUserRun</t>
+  </si>
+  <si>
+    <t>{"activityId":53171}</t>
+  </si>
+  <si>
+    <t>update zns_run_activity set   activity_start_time = NOW() where id = 53171</t>
   </si>
   <si>
     <t>活动详情页</t>
@@ -834,19 +846,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="21"/>
-      <color rgb="FF172B4D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1317,10 +1323,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1329,33 +1335,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,101 +1374,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,20 +1475,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1838,9 +1838,9 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -1869,7 +1869,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1908,12 +1908,12 @@
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1943,7 +1943,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -1995,18 +1995,18 @@
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:11">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2021,18 +2021,18 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2047,18 +2047,18 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2073,18 +2073,18 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2096,7 +2096,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -2107,7 +2107,7 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2119,7 +2119,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -2130,7 +2130,7 @@
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2145,7 +2145,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -2156,7 +2156,7 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2168,7 +2168,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -2179,7 +2179,7 @@
       <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -2191,7 +2191,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>35</v>
@@ -2202,7 +2202,7 @@
       <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -2217,7 +2217,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>35</v>
@@ -2228,7 +2228,7 @@
       <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -2240,7 +2240,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
@@ -2251,7 +2251,7 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -2263,7 +2263,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>39</v>
@@ -2274,7 +2274,7 @@
       <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2286,7 +2286,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -2297,7 +2297,7 @@
       <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -2307,9 +2307,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:11">
+    <row r="18" ht="121" customHeight="1" spans="1:11">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>39</v>
@@ -2320,7 +2320,7 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
@@ -2346,7 +2346,7 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2361,7 +2361,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
@@ -2372,7 +2372,7 @@
       <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="21" ht="56" customHeight="1" spans="1:11">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -2398,7 +2398,7 @@
       <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2413,7 +2413,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
@@ -2424,7 +2424,7 @@
       <c r="D22" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2439,7 +2439,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
@@ -2450,7 +2450,7 @@
       <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -2465,7 +2465,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>39</v>
@@ -2476,7 +2476,7 @@
       <c r="D24" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -2488,7 +2488,7 @@
     </row>
     <row r="25" ht="94" customHeight="1" spans="1:11">
       <c r="A25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>83</v>
@@ -2499,7 +2499,7 @@
       <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -2514,7 +2514,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
@@ -2525,7 +2525,7 @@
       <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2540,7 +2540,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>39</v>
@@ -2551,7 +2551,7 @@
       <c r="D27" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -2566,7 +2566,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
@@ -2577,7 +2577,7 @@
       <c r="D28" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -2592,7 +2592,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>39</v>
@@ -2603,7 +2603,7 @@
       <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -2618,7 +2618,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:11">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
@@ -2629,7 +2629,7 @@
       <c r="D30" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -2644,7 +2644,7 @@
     </row>
     <row r="31" ht="98" customHeight="1" spans="1:11">
       <c r="A31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
@@ -2655,7 +2655,7 @@
       <c r="D31" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2673,7 +2673,7 @@
     </row>
     <row r="32" ht="193" customHeight="1" spans="1:11">
       <c r="A32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
@@ -2684,7 +2684,7 @@
       <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -2702,7 +2702,7 @@
     </row>
     <row r="33" ht="119" customHeight="1" spans="1:11">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -2713,7 +2713,7 @@
       <c r="D33" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2731,7 +2731,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
@@ -2742,7 +2742,7 @@
       <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2757,7 +2757,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
@@ -2768,7 +2768,7 @@
       <c r="D35" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -2780,7 +2780,7 @@
     </row>
     <row r="36" customHeight="1" spans="1:11">
       <c r="A36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
@@ -2791,7 +2791,7 @@
       <c r="D36" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -2806,7 +2806,7 @@
     </row>
     <row r="37" customHeight="1" spans="1:11">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>39</v>
@@ -2817,7 +2817,7 @@
       <c r="D37" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -2832,7 +2832,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:11">
       <c r="A38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
@@ -2843,7 +2843,7 @@
       <c r="D38" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -2858,7 +2858,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:11">
       <c r="A39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -2869,7 +2869,7 @@
       <c r="D39" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2884,7 +2884,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:11">
       <c r="A40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -2895,7 +2895,7 @@
       <c r="D40" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -2910,7 +2910,7 @@
     </row>
     <row r="41" customHeight="1" spans="1:11">
       <c r="A41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -2921,7 +2921,7 @@
       <c r="D41" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -2936,7 +2936,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:11">
       <c r="A42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>39</v>
@@ -2947,7 +2947,7 @@
       <c r="D42" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -2959,7 +2959,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:11">
       <c r="A43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>39</v>
@@ -2970,7 +2970,7 @@
       <c r="D43" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -2982,7 +2982,7 @@
     </row>
     <row r="44" ht="70" customHeight="1" spans="1:11">
       <c r="A44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>39</v>
@@ -2993,7 +2993,7 @@
       <c r="D44" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3005,7 +3005,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:11">
       <c r="A45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>39</v>
@@ -3016,7 +3016,7 @@
       <c r="D45" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3028,7 +3028,7 @@
     </row>
     <row r="46" customHeight="1" spans="1:11">
       <c r="A46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>39</v>
@@ -3039,7 +3039,7 @@
       <c r="D46" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -3051,7 +3051,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:11">
       <c r="A47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>39</v>
@@ -3062,7 +3062,7 @@
       <c r="D47" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -3074,7 +3074,7 @@
     </row>
     <row r="48" customHeight="1" spans="1:11">
       <c r="A48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>39</v>
@@ -3085,7 +3085,7 @@
       <c r="D48" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -3100,7 +3100,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:11">
       <c r="A49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>39</v>
@@ -3111,7 +3111,7 @@
       <c r="D49" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -3123,7 +3123,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:11">
       <c r="A50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>39</v>
@@ -3134,7 +3134,7 @@
       <c r="D50" t="s">
         <v>157</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -3152,7 +3152,7 @@
     </row>
     <row r="51" customHeight="1" spans="1:11">
       <c r="A51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>160</v>
@@ -3163,7 +3163,7 @@
       <c r="D51" t="s">
         <v>162</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="52" customHeight="1" spans="1:11">
       <c r="A52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>160</v>
@@ -3186,7 +3186,7 @@
       <c r="D52" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3198,7 +3198,7 @@
     </row>
     <row r="53" ht="46" customHeight="1" spans="1:11">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>160</v>
@@ -3209,7 +3209,7 @@
       <c r="D53" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -3224,7 +3224,7 @@
     </row>
     <row r="54" customHeight="1" spans="1:11">
       <c r="A54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>170</v>
@@ -3235,7 +3235,7 @@
       <c r="D54" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -3247,7 +3247,7 @@
     </row>
     <row r="55" customHeight="1" spans="1:11">
       <c r="A55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>170</v>
@@ -3258,7 +3258,7 @@
       <c r="D55" t="s">
         <v>174</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -3273,7 +3273,7 @@
     </row>
     <row r="56" customHeight="1" spans="1:11">
       <c r="A56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>176</v>
@@ -3284,7 +3284,7 @@
       <c r="D56" t="s">
         <v>178</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -3299,7 +3299,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:11">
       <c r="A57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>160</v>
@@ -3310,7 +3310,7 @@
       <c r="D57" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -3322,7 +3322,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:11">
       <c r="A58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>160</v>
@@ -3333,7 +3333,7 @@
       <c r="D58" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -3345,7 +3345,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:11">
       <c r="A59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>39</v>
@@ -3356,7 +3356,7 @@
       <c r="D59" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -3368,7 +3368,7 @@
     </row>
     <row r="60" ht="70" customHeight="1" spans="1:11">
       <c r="A60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>39</v>
@@ -3379,7 +3379,7 @@
       <c r="D60" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -3391,7 +3391,7 @@
     </row>
     <row r="61" ht="74" customHeight="1" spans="1:11">
       <c r="A61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>39</v>
@@ -3402,7 +3402,7 @@
       <c r="D61" t="s">
         <v>189</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -3414,7 +3414,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:11">
       <c r="A62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>26</v>
@@ -3425,7 +3425,7 @@
       <c r="D62" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="63" customHeight="1" spans="1:11">
       <c r="A63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>26</v>
@@ -3448,7 +3448,7 @@
       <c r="D63" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -3460,18 +3460,18 @@
     </row>
     <row r="64" customHeight="1" spans="1:11">
       <c r="A64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>195</v>
       </c>
       <c r="D64" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -3483,7 +3483,7 @@
     </row>
     <row r="65" ht="63" customHeight="1" spans="1:11">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>26</v>
@@ -3494,7 +3494,7 @@
       <c r="D65" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -3506,7 +3506,7 @@
     </row>
     <row r="66" ht="54" spans="1:11">
       <c r="A66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>26</v>
@@ -3517,7 +3517,7 @@
       <c r="D66" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -3529,7 +3529,7 @@
     </row>
     <row r="67" ht="54" spans="1:11">
       <c r="A67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>26</v>
@@ -3540,7 +3540,7 @@
       <c r="D67" t="s">
         <v>200</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
@@ -3555,7 +3555,7 @@
     </row>
     <row r="68" customHeight="1" spans="1:11">
       <c r="A68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>26</v>
@@ -3566,7 +3566,7 @@
       <c r="D68" t="s">
         <v>205</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -3578,7 +3578,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:11">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>26</v>
@@ -3589,7 +3589,7 @@
       <c r="D69" t="s">
         <v>207</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -3599,9 +3599,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:13">
+    <row r="70" ht="77" customHeight="1" spans="1:13">
       <c r="A70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>26</v>
@@ -3612,7 +3612,7 @@
       <c r="D70" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -3633,18 +3633,18 @@
     </row>
     <row r="71" customHeight="1" spans="1:11">
       <c r="A71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D71" t="s">
         <v>215</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -3656,7 +3656,7 @@
     </row>
     <row r="72" customHeight="1" spans="1:11">
       <c r="A72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>26</v>
@@ -3667,7 +3667,7 @@
       <c r="D72" t="s">
         <v>217</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -3679,7 +3679,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:11">
       <c r="A73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>26</v>
@@ -3690,7 +3690,7 @@
       <c r="D73" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -3700,9 +3700,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:11">
+    <row r="74" ht="75" customHeight="1" spans="1:11">
       <c r="A74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>14</v>
@@ -3713,37 +3713,41 @@
       <c r="D74" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="H74" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="I74" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="K74" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="75" ht="94.5" spans="1:11">
       <c r="A75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E75" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>20</v>
@@ -3751,18 +3755,18 @@
     </row>
     <row r="76" customHeight="1" spans="1:11">
       <c r="A76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E76" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -3774,18 +3778,18 @@
     </row>
     <row r="77" customHeight="1" spans="1:11">
       <c r="A77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E77" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -3803,19 +3807,19 @@
         <v>26</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>20</v>
@@ -3823,48 +3827,48 @@
     </row>
     <row r="79" customHeight="1" spans="1:11">
       <c r="A79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" ht="70" customHeight="1" spans="1:11">
+    <row r="80" ht="199" customHeight="1" spans="1:11">
       <c r="A80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E80" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>20</v>
@@ -3872,22 +3876,22 @@
     </row>
     <row r="81" customHeight="1" spans="1:11">
       <c r="A81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E81" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>20</v>
@@ -3895,74 +3899,86 @@
     </row>
     <row r="82" customHeight="1" spans="1:13">
       <c r="A82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M82" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="115" customHeight="1" spans="1:8">
+    <row r="83" ht="115" customHeight="1" spans="1:11">
       <c r="A83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>17</v>
+        <v>250</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:11">
+        <v>251</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" ht="70" customHeight="1" spans="1:11">
       <c r="A84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E84" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>38</v>
+        <v>255</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>20</v>
@@ -3970,22 +3986,22 @@
     </row>
     <row r="85" customHeight="1" spans="1:11">
       <c r="A85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E85" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>20</v>
@@ -3993,22 +4009,22 @@
     </row>
     <row r="86" customHeight="1" spans="1:11">
       <c r="A86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E86" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>20</v>
@@ -4020,7 +4036,6 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="C63" r:id="rId1" display="开始智能匹配" tooltip="http://kjdoc.yijiesudai.com/pages/viewpage.action?pageId=29262275"/>
-    <hyperlink ref="C1" r:id="rId2" display="活动帮助--我有疑问" tooltip="http://kjdoc.yijiesudai.com/pages/viewpage.action?pageId=47612014"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="262">
   <si>
     <t>is_test</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>"code":"200"</t>
-  </si>
-  <si>
-    <t>select online_status from zns_user where id =343</t>
-  </si>
-  <si>
-    <t>update zns_user set online_status = 0 where id =343</t>
   </si>
   <si>
     <t>登录-密码错误</t>
@@ -782,7 +776,10 @@
     <t>/app/runActivity/inviteRunner</t>
   </si>
   <si>
-    <t>{"activityId":53274,"activityUserIds":[343]}</t>
+    <t>{"activityId":53274,"activityUserIds":[345]}</t>
+  </si>
+  <si>
+    <t>update zns_run_activity set   activity_start_time = NOW() where id = 53274</t>
   </si>
   <si>
     <t>用户取消/接受/拒绝 活动-免费</t>
@@ -794,7 +791,7 @@
     <t>update zns_run_activity_user set is_delete = 1 where activity_id = 53298 and user_id = 343</t>
   </si>
   <si>
-    <t>select user_state from zns_run_activity_user where id = 1268626</t>
+    <t>select user_state from zns_run_activity_user where activity_id = 53298 and user_id = 343 and is_delete=0</t>
   </si>
   <si>
     <t>用户取消/接受/拒绝 活动-付费</t>
@@ -1465,7 +1462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1484,7 +1481,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1838,9 +1838,9 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -1906,9 +1906,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:14">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1931,25 +1931,16 @@
       <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -1961,33 +1952,33 @@
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>20</v>
@@ -1995,25 +1986,25 @@
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:11">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>20</v>
@@ -2021,25 +2012,25 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
@@ -2047,25 +2038,25 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>20</v>
@@ -2073,22 +2064,22 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>20</v>
@@ -2096,22 +2087,22 @@
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>20</v>
@@ -2119,25 +2110,25 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>20</v>
@@ -2145,22 +2136,22 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>20</v>
@@ -2168,22 +2159,22 @@
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>20</v>
@@ -2191,25 +2182,25 @@
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>20</v>
@@ -2217,22 +2208,22 @@
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>20</v>
@@ -2240,22 +2231,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>20</v>
@@ -2263,22 +2254,22 @@
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>20</v>
@@ -2286,22 +2277,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
@@ -2309,25 +2300,25 @@
     </row>
     <row r="18" ht="121" customHeight="1" spans="1:11">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>20</v>
@@ -2335,25 +2326,25 @@
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>20</v>
@@ -2361,25 +2352,25 @@
     </row>
     <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>20</v>
@@ -2387,25 +2378,25 @@
     </row>
     <row r="21" ht="56" customHeight="1" spans="1:11">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
@@ -2413,25 +2404,25 @@
     </row>
     <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>20</v>
@@ -2439,25 +2430,25 @@
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>20</v>
@@ -2465,22 +2456,22 @@
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>20</v>
@@ -2488,25 +2479,25 @@
     </row>
     <row r="25" ht="94" customHeight="1" spans="1:11">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H25" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>20</v>
@@ -2514,25 +2505,25 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>20</v>
@@ -2540,25 +2531,25 @@
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>20</v>
@@ -2566,25 +2557,25 @@
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>20</v>
@@ -2592,25 +2583,25 @@
     </row>
     <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>20</v>
@@ -2618,25 +2609,25 @@
     </row>
     <row r="30" customHeight="1" spans="1:11">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>20</v>
@@ -2644,28 +2635,28 @@
     </row>
     <row r="31" ht="98" customHeight="1" spans="1:11">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D31" t="s">
+      <c r="I31" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
@@ -2673,28 +2664,28 @@
     </row>
     <row r="32" ht="193" customHeight="1" spans="1:11">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D32" t="s">
+      <c r="I32" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>20</v>
@@ -2702,28 +2693,28 @@
     </row>
     <row r="33" ht="119" customHeight="1" spans="1:11">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>20</v>
@@ -2731,25 +2722,25 @@
     </row>
     <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>20</v>
@@ -2757,22 +2748,22 @@
     </row>
     <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>20</v>
@@ -2780,25 +2771,25 @@
     </row>
     <row r="36" customHeight="1" spans="1:11">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>20</v>
@@ -2806,25 +2797,25 @@
     </row>
     <row r="37" customHeight="1" spans="1:11">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>20</v>
@@ -2832,25 +2823,25 @@
     </row>
     <row r="38" customHeight="1" spans="1:11">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>20</v>
@@ -2858,25 +2849,25 @@
     </row>
     <row r="39" customHeight="1" spans="1:11">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>20</v>
@@ -2884,25 +2875,25 @@
     </row>
     <row r="40" customHeight="1" spans="1:11">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>20</v>
@@ -2910,25 +2901,25 @@
     </row>
     <row r="41" customHeight="1" spans="1:11">
       <c r="A41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>20</v>
@@ -2936,22 +2927,22 @@
     </row>
     <row r="42" customHeight="1" spans="1:11">
       <c r="A42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>20</v>
@@ -2959,22 +2950,22 @@
     </row>
     <row r="43" customHeight="1" spans="1:11">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>20</v>
@@ -2982,22 +2973,22 @@
     </row>
     <row r="44" ht="70" customHeight="1" spans="1:11">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>20</v>
@@ -3005,22 +2996,22 @@
     </row>
     <row r="45" customHeight="1" spans="1:11">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>20</v>
@@ -3028,22 +3019,22 @@
     </row>
     <row r="46" customHeight="1" spans="1:11">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D46" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>20</v>
@@ -3051,22 +3042,22 @@
     </row>
     <row r="47" customHeight="1" spans="1:11">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>20</v>
@@ -3074,48 +3065,48 @@
     </row>
     <row r="48" customHeight="1" spans="1:11">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D48" t="s">
+      <c r="H48" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:11">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D49" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>20</v>
@@ -3123,28 +3114,28 @@
     </row>
     <row r="50" customHeight="1" spans="1:11">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D50" t="s">
+      <c r="H50" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>20</v>
@@ -3152,22 +3143,22 @@
     </row>
     <row r="51" customHeight="1" spans="1:11">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
         <v>160</v>
       </c>
-      <c r="C51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" t="s">
-        <v>162</v>
-      </c>
       <c r="E51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>20</v>
@@ -3175,22 +3166,22 @@
     </row>
     <row r="52" customHeight="1" spans="1:11">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>20</v>
@@ -3198,25 +3189,25 @@
     </row>
     <row r="53" ht="46" customHeight="1" spans="1:11">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D53" t="s">
+      <c r="I53" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>20</v>
@@ -3224,22 +3215,22 @@
     </row>
     <row r="54" customHeight="1" spans="1:11">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
         <v>170</v>
       </c>
-      <c r="C54" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" t="s">
-        <v>172</v>
-      </c>
       <c r="E54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>20</v>
@@ -3247,25 +3238,25 @@
     </row>
     <row r="55" customHeight="1" spans="1:11">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D55" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>20</v>
@@ -3273,25 +3264,25 @@
     </row>
     <row r="56" customHeight="1" spans="1:11">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
         <v>176</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D56" t="s">
-        <v>178</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>20</v>
@@ -3299,22 +3290,22 @@
     </row>
     <row r="57" customHeight="1" spans="1:11">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>20</v>
@@ -3322,22 +3313,22 @@
     </row>
     <row r="58" customHeight="1" spans="1:11">
       <c r="A58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>20</v>
@@ -3345,22 +3336,22 @@
     </row>
     <row r="59" customHeight="1" spans="1:11">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>20</v>
@@ -3368,22 +3359,22 @@
     </row>
     <row r="60" ht="70" customHeight="1" spans="1:11">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D60" t="s">
-        <v>187</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>20</v>
@@ -3391,22 +3382,22 @@
     </row>
     <row r="61" ht="74" customHeight="1" spans="1:11">
       <c r="A61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>20</v>
@@ -3414,22 +3405,22 @@
     </row>
     <row r="62" customHeight="1" spans="1:11">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>20</v>
@@ -3437,22 +3428,22 @@
     </row>
     <row r="63" customHeight="1" spans="1:11">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>20</v>
@@ -3460,45 +3451,45 @@
     </row>
     <row r="64" customHeight="1" spans="1:11">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D64" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="65" ht="63" customHeight="1" spans="1:11">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>20</v>
@@ -3506,22 +3497,22 @@
     </row>
     <row r="66" ht="54" spans="1:11">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D66" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>20</v>
@@ -3529,16 +3520,16 @@
     </row>
     <row r="67" ht="54" spans="1:11">
       <c r="A67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>17</v>
@@ -3547,7 +3538,7 @@
         <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>20</v>
@@ -3555,22 +3546,22 @@
     </row>
     <row r="68" customHeight="1" spans="1:11">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>20</v>
@@ -3578,22 +3569,22 @@
     </row>
     <row r="69" customHeight="1" spans="1:11">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D69" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>20</v>
@@ -3601,31 +3592,31 @@
     </row>
     <row r="70" ht="77" customHeight="1" spans="1:13">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D70" t="s">
+      <c r="I70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="K70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="M70" s="2">
         <v>3</v>
@@ -3633,22 +3624,22 @@
     </row>
     <row r="71" customHeight="1" spans="1:11">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>20</v>
@@ -3656,22 +3647,22 @@
     </row>
     <row r="72" customHeight="1" spans="1:11">
       <c r="A72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D72" t="s">
-        <v>217</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>20</v>
@@ -3679,22 +3670,22 @@
     </row>
     <row r="73" customHeight="1" spans="1:11">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>20</v>
@@ -3702,26 +3693,25 @@
     </row>
     <row r="74" ht="75" customHeight="1" spans="1:11">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>20</v>
@@ -3729,25 +3719,25 @@
     </row>
     <row r="75" ht="94.5" spans="1:11">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>20</v>
@@ -3755,22 +3745,22 @@
     </row>
     <row r="76" customHeight="1" spans="1:11">
       <c r="A76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>20</v>
@@ -3778,22 +3768,22 @@
     </row>
     <row r="77" customHeight="1" spans="1:11">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>20</v>
@@ -3804,22 +3794,22 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="I78" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>20</v>
@@ -3827,22 +3817,22 @@
     </row>
     <row r="79" customHeight="1" spans="1:11">
       <c r="A79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>20</v>
@@ -3850,25 +3840,25 @@
     </row>
     <row r="80" ht="199" customHeight="1" spans="1:11">
       <c r="A80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>20</v>
@@ -3876,54 +3866,57 @@
     </row>
     <row r="81" customHeight="1" spans="1:11">
       <c r="A81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="K81" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" ht="89" customHeight="1" spans="1:13">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:13">
-      <c r="A82" s="1">
-        <v>1</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I82" s="2" t="s">
+      <c r="K82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="M82" s="2">
         <v>1</v>
@@ -3931,16 +3924,16 @@
     </row>
     <row r="83" ht="115" customHeight="1" spans="1:11">
       <c r="A83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>17</v>
@@ -3949,10 +3942,10 @@
         <v>18</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>20</v>
@@ -3960,25 +3953,25 @@
     </row>
     <row r="84" ht="70" customHeight="1" spans="1:11">
       <c r="A84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>20</v>
@@ -3986,22 +3979,22 @@
     </row>
     <row r="85" customHeight="1" spans="1:11">
       <c r="A85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>20</v>
@@ -4009,22 +4002,22 @@
     </row>
     <row r="86" customHeight="1" spans="1:11">
       <c r="A86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>20</v>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26730" windowHeight="13140"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
     <t>/app/mind/match</t>
   </si>
   <si>
-    <t>{"matchType":1,"targetMileage":1000,"userId":345}</t>
+    <t>{"targetMileage":1000,"userId":343}</t>
   </si>
   <si>
     <t>取消匹配</t>
@@ -1462,7 +1462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,9 +1480,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1838,9 +1835,9 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -3451,7 +3448,7 @@
     </row>
     <row r="64" customHeight="1" spans="1:11">
       <c r="A64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>24</v>
@@ -3825,7 +3822,7 @@
       <c r="C79" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>236</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -3848,7 +3845,7 @@
       <c r="C80" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>239</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -3874,7 +3871,7 @@
       <c r="C81" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>242</v>
       </c>
       <c r="E81" s="3" t="s">

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -7,10 +7,10 @@
     <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="api" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">login!$D$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">api!$D$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1837,7 +1837,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="26730" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -1835,9 +1835,9 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -1835,9 +1835,9 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26730" windowHeight="13140"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="261">
   <si>
     <t>is_test</t>
   </si>
@@ -115,7 +115,10 @@
     <t>POST</t>
   </si>
   <si>
-    <t xml:space="preserve">{"activityId":52556,"courseId":0,"data":[{"calories":32,"gradient":0,"heartRate":0,"mileage":397,"runTime":119917,"stepNum":0,"velocity":20000},{"calories":33,"gradient":0,"heartRate":0,"mileage":402,"runTime":120917,"stepNum":0,"velocity":20000},{"calories":33,"gradient":0,"heartRate":0,"mileage":408,"runTime":121917,"stepNum":0,"velocity":20000},{"calories":34,"gradient":0,"heartRate":0,"mileage":414,"runTime":122917,"stepNum":0,"velocity":20000},{"calories":34,"gradient":0,"heartRate":0,"mileage":419,"runTime":123917,"stepNum":0,"velocity":20000},{"calories":35,"gradient":0,"heartRate":0,"mileage":425,"runTime":124917,"stepNum":0,"velocity":20000},{"calories":35,"gradient":0,"heartRate":0,"mileage":430,"runTime":125917,"stepNum":0,"velocity":20000},{"calories":36,"gradient":0,"heartRate":0,"mileage":436,"runTime":126917,"stepNum":0,"velocity":20000},{"calories":36,"gradient":0,"heartRate":0,"mileage":441,"runTime":127917,"stepNum":0,"velocity":20000},{"calories":37,"gradient":0,"heartRate":0,"mileage":447,"runTime":128917,"stepNum":0,"velocity":20000},{"calories":37,"gradient":0,"heartRate":0,"mileage":452,"runTime":129917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":458,"runTime":130917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":464,"runTime":131917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":469,"runTime":132917,"stepNum":0,"velocity":20000},{"calories":39,"gradient":0,"heartRate":0,"mileage":475,"runTime":133917,"stepNum":0,"velocity":20000},{"calories":39,"gradient":0,"heartRate":0,"mileage":480,"runTime":134917,"stepNum":0,"velocity":20000},{"calories":40,"gradient":0,"heartRate":0,"mileage":486,"runTime":135917,"stepNum":0,"velocity":20000},{"calories":40,"gradient":0,"heartRate":0,"mileage":491,"runTime":136917,"stepNum":0,"velocity":20000},{"calories":41,"gradient":0,"heartRate":0,"mileage":497,"runTime":137917,"stepNum":0,"velocity":20000},{"calories":41,"gradient":0,"heartRate":0,"mileage":502,"runTime":138917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":508,"runTime":139917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":514,"runTime":140917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":514,"runTime":141717,"stepNum":0,"velocity":0}],"distanceTarget":1000,"firmwareVersion":23,"id_no":330,"order_no":133,"routeId":401,"run_status":1,"taskId":0,"timeTarget":0,"unique_code":"MQmq58CF791677A\u0000"} </t>
+    <t>{"email":"mtbsw1@126.com"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"activityId":52556,"courseId":0,"data":[{"calories":32,"gradient":0,"heartRate":0,"mileage":397,"runTime":119917,"stepNum":0,"velocity":20000},{"calories":33,"gradient":0,"heartRate":0,"mileage":402,"runTime":120917,"stepNum":0,"velocity":20000},{"calories":33,"gradient":0,"heartRate":0,"mileage":408,"runTime":121917,"stepNum":0,"velocity":20000},{"calories":34,"gradient":0,"heartRate":0,"mileage":414,"runTime":122917,"stepNum":0,"velocity":20000},{"calories":34,"gradient":0,"heartRate":0,"mileage":419,"runTime":123917,"stepNum":0,"velocity":20000},{"calories":35,"gradient":0,"heartRate":0,"mileage":425,"runTime":124917,"stepNum":0,"velocity":20000},{"calories":35,"gradient":0,"heartRate":0,"mileage":430,"runTime":125917,"stepNum":0,"velocity":20000},{"calories":36,"gradient":0,"heartRate":0,"mileage":436,"runTime":126917,"stepNum":0,"velocity":20000},{"calories":36,"gradient":0,"heartRate":0,"mileage":441,"runTime":127917,"stepNum":0,"velocity":20000},{"calories":37,"gradient":0,"heartRate":0,"mileage":447,"runTime":128917,"stepNum":0,"velocity":20000},{"calories":37,"gradient":0,"heartRate":0,"mileage":452,"runTime":129917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":458,"runTime":130917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":464,"runTime":131917,"stepNum":0,"velocity":20000},{"calories":38,"gradient":0,"heartRate":0,"mileage":469,"runTime":132917,"stepNum":0,"velocity":20000},{"calories":39,"gradient":0,"heartRate":0,"mileage":475,"runTime":133917,"stepNum":0,"velocity":20000},{"calories":39,"gradient":0,"heartRate":0,"mileage":480,"runTime":134917,"stepNum":0,"velocity":20000},{"calories":40,"gradient":0,"heartRate":0,"mileage":486,"runTime":135917,"stepNum":0,"velocity":20000},{"calories":40,"gradient":0,"heartRate":0,"mileage":491,"runTime":136917,"stepNum":0,"velocity":20000},{"calories":41,"gradient":0,"heartRate":0,"mileage":497,"runTime":137917,"stepNum":0,"velocity":20000},{"calories":41,"gradient":0,"heartRate":0,"mileage":502,"runTime":138917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":508,"runTime":139917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":514,"runTime":140917,"stepNum":0,"velocity":20000},{"calories":42,"gradient":0,"heartRate":0,"mileage":514,"runTime":141717,"stepNum":0,"velocity":0}],"distanceTarget":1000,"firmwareVersion":23,"id_no":330,"order_no":187,"routeId":401,"run_status":1,"taskId":0,"timeTarget":0,"unique_code":"MQmq58CF791677A\u0000"} </t>
   </si>
   <si>
     <t>课程</t>
@@ -237,7 +240,7 @@
     <t>/app/user/saveInfo</t>
   </si>
   <si>
-    <t>{"address":"","city":"Autauga","country":"America","firstName":"bym2","gender":0,"height":175,"invitationCode":"","lastName":"","state":"Alabama","weight":80.0}</t>
+    <t>{"address":"","city":"Autauga","country":"America","firstName":"bym22","gender":0,"height":175,"invitationCode":"","lastName":"","state":"Alabama","weight":80.0}</t>
   </si>
   <si>
     <t>关注</t>
@@ -489,9 +492,6 @@
     <t>/h5/medal/pos</t>
   </si>
   <si>
-    <t>{"email":"mtbsw5@126.com"}</t>
-  </si>
-  <si>
     <t>{"data":[{"id":76,"pos":1},{"id":80,"pos":2},{"id":82,"pos":3},{"id":81,"pos":4},{"id":83,"pos":5},{"id":90,"pos":6}],"email":"mtbsw5@126.com"}</t>
   </si>
   <si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>/h5/distribution/promotionCenterList</t>
-  </si>
-  <si>
-    <t>{"email":"mtbsw4@126.com"}</t>
   </si>
   <si>
     <t>客服</t>
@@ -1835,9 +1832,9 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -1905,7 +1902,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1931,7 +1928,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1955,9 +1952,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:11">
+    <row r="4" ht="70" customHeight="1" spans="1:11">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -1983,7 +1980,7 @@
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:11">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1998,10 +1995,10 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>20</v>
@@ -2009,16 +2006,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -2027,7 +2024,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
@@ -2035,16 +2032,16 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -2053,7 +2050,7 @@
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>20</v>
@@ -2061,22 +2058,22 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>20</v>
@@ -2084,22 +2081,22 @@
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>20</v>
@@ -2107,16 +2104,16 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
@@ -2125,7 +2122,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>20</v>
@@ -2133,22 +2130,22 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>20</v>
@@ -2156,22 +2153,22 @@
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>20</v>
@@ -2179,16 +2176,16 @@
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -2197,7 +2194,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>20</v>
@@ -2205,22 +2202,22 @@
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>20</v>
@@ -2228,22 +2225,22 @@
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>20</v>
@@ -2251,22 +2248,22 @@
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>20</v>
@@ -2274,22 +2271,22 @@
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
@@ -2300,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>17</v>
@@ -2315,7 +2312,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>20</v>
@@ -2323,16 +2320,16 @@
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
@@ -2341,7 +2338,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>20</v>
@@ -2349,16 +2346,16 @@
     </row>
     <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>17</v>
@@ -2367,7 +2364,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>20</v>
@@ -2375,16 +2372,16 @@
     </row>
     <row r="21" ht="56" customHeight="1" spans="1:11">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
@@ -2393,7 +2390,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
@@ -2401,16 +2398,16 @@
     </row>
     <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
@@ -2419,7 +2416,7 @@
         <v>27</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>20</v>
@@ -2427,16 +2424,16 @@
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
@@ -2445,7 +2442,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>20</v>
@@ -2453,22 +2450,22 @@
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>20</v>
@@ -2476,25 +2473,25 @@
     </row>
     <row r="25" ht="94" customHeight="1" spans="1:11">
       <c r="A25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>20</v>
@@ -2502,16 +2499,16 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>17</v>
@@ -2520,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>20</v>
@@ -2528,16 +2525,16 @@
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
@@ -2546,7 +2543,7 @@
         <v>27</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>20</v>
@@ -2554,16 +2551,16 @@
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>17</v>
@@ -2572,7 +2569,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>20</v>
@@ -2580,16 +2577,16 @@
     </row>
     <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>17</v>
@@ -2598,7 +2595,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>20</v>
@@ -2606,16 +2603,16 @@
     </row>
     <row r="30" customHeight="1" spans="1:11">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
@@ -2624,7 +2621,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>20</v>
@@ -2632,16 +2629,16 @@
     </row>
     <row r="31" ht="98" customHeight="1" spans="1:11">
       <c r="A31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
@@ -2650,10 +2647,10 @@
         <v>27</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
@@ -2661,16 +2658,16 @@
     </row>
     <row r="32" ht="193" customHeight="1" spans="1:11">
       <c r="A32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>17</v>
@@ -2679,10 +2676,10 @@
         <v>27</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>20</v>
@@ -2690,16 +2687,16 @@
     </row>
     <row r="33" ht="119" customHeight="1" spans="1:11">
       <c r="A33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>17</v>
@@ -2708,10 +2705,10 @@
         <v>27</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>20</v>
@@ -2719,16 +2716,16 @@
     </row>
     <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>17</v>
@@ -2737,7 +2734,7 @@
         <v>27</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>20</v>
@@ -2745,22 +2742,22 @@
     </row>
     <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>20</v>
@@ -2768,16 +2765,16 @@
     </row>
     <row r="36" customHeight="1" spans="1:11">
       <c r="A36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>17</v>
@@ -2786,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>20</v>
@@ -2794,16 +2791,16 @@
     </row>
     <row r="37" customHeight="1" spans="1:11">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
@@ -2812,7 +2809,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>20</v>
@@ -2820,16 +2817,16 @@
     </row>
     <row r="38" customHeight="1" spans="1:11">
       <c r="A38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
@@ -2838,7 +2835,7 @@
         <v>27</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>20</v>
@@ -2846,16 +2843,16 @@
     </row>
     <row r="39" customHeight="1" spans="1:11">
       <c r="A39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>17</v>
@@ -2864,7 +2861,7 @@
         <v>27</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>20</v>
@@ -2872,16 +2869,16 @@
     </row>
     <row r="40" customHeight="1" spans="1:11">
       <c r="A40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -2890,7 +2887,7 @@
         <v>27</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>20</v>
@@ -2898,16 +2895,16 @@
     </row>
     <row r="41" customHeight="1" spans="1:11">
       <c r="A41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>17</v>
@@ -2916,7 +2913,7 @@
         <v>27</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>20</v>
@@ -2924,22 +2921,22 @@
     </row>
     <row r="42" customHeight="1" spans="1:11">
       <c r="A42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>20</v>
@@ -2947,22 +2944,22 @@
     </row>
     <row r="43" customHeight="1" spans="1:11">
       <c r="A43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>20</v>
@@ -2970,22 +2967,22 @@
     </row>
     <row r="44" ht="70" customHeight="1" spans="1:11">
       <c r="A44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>20</v>
@@ -2993,22 +2990,22 @@
     </row>
     <row r="45" customHeight="1" spans="1:11">
       <c r="A45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>20</v>
@@ -3016,22 +3013,22 @@
     </row>
     <row r="46" customHeight="1" spans="1:11">
       <c r="A46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>20</v>
@@ -3039,22 +3036,22 @@
     </row>
     <row r="47" customHeight="1" spans="1:11">
       <c r="A47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>20</v>
@@ -3062,22 +3059,22 @@
     </row>
     <row r="48" customHeight="1" spans="1:11">
       <c r="A48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>149</v>
@@ -3088,10 +3085,10 @@
     </row>
     <row r="49" customHeight="1" spans="1:11">
       <c r="A49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>151</v>
@@ -3111,10 +3108,10 @@
     </row>
     <row r="50" customHeight="1" spans="1:11">
       <c r="A50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
         <v>154</v>
@@ -3126,7 +3123,7 @@
         <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>156</v>
@@ -3140,7 +3137,7 @@
     </row>
     <row r="51" customHeight="1" spans="1:11">
       <c r="A51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>158</v>
@@ -3155,7 +3152,7 @@
         <v>17</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>20</v>
@@ -3163,7 +3160,7 @@
     </row>
     <row r="52" customHeight="1" spans="1:11">
       <c r="A52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>158</v>
@@ -3186,7 +3183,7 @@
     </row>
     <row r="53" ht="46" customHeight="1" spans="1:11">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>158</v>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="54" customHeight="1" spans="1:11">
       <c r="A54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>168</v>
@@ -3227,7 +3224,7 @@
         <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>20</v>
@@ -3235,7 +3232,7 @@
     </row>
     <row r="55" customHeight="1" spans="1:11">
       <c r="A55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>168</v>
@@ -3250,10 +3247,10 @@
         <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>20</v>
@@ -3261,25 +3258,25 @@
     </row>
     <row r="56" customHeight="1" spans="1:11">
       <c r="A56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
         <v>174</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>175</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>20</v>
@@ -3287,22 +3284,22 @@
     </row>
     <row r="57" customHeight="1" spans="1:11">
       <c r="A57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" t="s">
         <v>178</v>
       </c>
-      <c r="D57" t="s">
-        <v>179</v>
-      </c>
       <c r="E57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>20</v>
@@ -3310,16 +3307,16 @@
     </row>
     <row r="58" customHeight="1" spans="1:11">
       <c r="A58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" t="s">
         <v>180</v>
-      </c>
-      <c r="D58" t="s">
-        <v>181</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>17</v>
@@ -3333,22 +3330,22 @@
     </row>
     <row r="59" customHeight="1" spans="1:11">
       <c r="A59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>20</v>
@@ -3356,22 +3353,22 @@
     </row>
     <row r="60" ht="70" customHeight="1" spans="1:11">
       <c r="A60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" t="s">
         <v>184</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>20</v>
@@ -3379,22 +3376,22 @@
     </row>
     <row r="61" ht="74" customHeight="1" spans="1:11">
       <c r="A61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>20</v>
@@ -3402,22 +3399,22 @@
     </row>
     <row r="62" customHeight="1" spans="1:11">
       <c r="A62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" t="s">
         <v>188</v>
       </c>
-      <c r="D62" t="s">
-        <v>189</v>
-      </c>
       <c r="E62" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>20</v>
@@ -3425,22 +3422,22 @@
     </row>
     <row r="63" customHeight="1" spans="1:11">
       <c r="A63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>20</v>
@@ -3454,39 +3451,39 @@
         <v>24</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s">
         <v>193</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="65" ht="63" customHeight="1" spans="1:11">
       <c r="A65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>20</v>
@@ -3494,22 +3491,22 @@
     </row>
     <row r="66" ht="54" spans="1:11">
       <c r="A66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
         <v>197</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>20</v>
@@ -3517,16 +3514,16 @@
     </row>
     <row r="67" ht="54" spans="1:11">
       <c r="A67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>17</v>
@@ -3535,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>20</v>
@@ -3543,22 +3540,22 @@
     </row>
     <row r="68" customHeight="1" spans="1:11">
       <c r="A68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
         <v>202</v>
       </c>
-      <c r="D68" t="s">
-        <v>203</v>
-      </c>
       <c r="E68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>20</v>
@@ -3566,22 +3563,22 @@
     </row>
     <row r="69" customHeight="1" spans="1:11">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" t="s">
         <v>204</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>20</v>
@@ -3589,31 +3586,31 @@
     </row>
     <row r="70" ht="77" customHeight="1" spans="1:13">
       <c r="A70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" t="s">
         <v>207</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="K70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="M70" s="2">
         <v>3</v>
@@ -3621,22 +3618,22 @@
     </row>
     <row r="71" customHeight="1" spans="1:11">
       <c r="A71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" t="s">
         <v>212</v>
       </c>
-      <c r="D71" t="s">
-        <v>213</v>
-      </c>
       <c r="E71" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>20</v>
@@ -3644,22 +3641,22 @@
     </row>
     <row r="72" customHeight="1" spans="1:11">
       <c r="A72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C72" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" t="s">
         <v>214</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>20</v>
@@ -3667,22 +3664,22 @@
     </row>
     <row r="73" customHeight="1" spans="1:11">
       <c r="A73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="E73" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>20</v>
@@ -3690,25 +3687,25 @@
     </row>
     <row r="74" ht="75" customHeight="1" spans="1:11">
       <c r="A74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>20</v>
@@ -3716,25 +3713,25 @@
     </row>
     <row r="75" ht="94.5" spans="1:11">
       <c r="A75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>20</v>
@@ -3742,22 +3739,22 @@
     </row>
     <row r="76" customHeight="1" spans="1:11">
       <c r="A76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>20</v>
@@ -3765,22 +3762,22 @@
     </row>
     <row r="77" customHeight="1" spans="1:11">
       <c r="A77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="E77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>20</v>
@@ -3788,25 +3785,25 @@
     </row>
     <row r="78" ht="58" customHeight="1" spans="1:11">
       <c r="A78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>20</v>
@@ -3814,22 +3811,22 @@
     </row>
     <row r="79" customHeight="1" spans="1:11">
       <c r="A79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>20</v>
@@ -3837,25 +3834,25 @@
     </row>
     <row r="80" ht="199" customHeight="1" spans="1:11">
       <c r="A80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>20</v>
@@ -3863,25 +3860,25 @@
     </row>
     <row r="81" customHeight="1" spans="1:11">
       <c r="A81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>20</v>
@@ -3889,31 +3886,31 @@
     </row>
     <row r="82" ht="89" customHeight="1" spans="1:13">
       <c r="A82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I82" s="2" t="s">
+      <c r="K82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="M82" s="2">
         <v>1</v>
@@ -3921,16 +3918,16 @@
     </row>
     <row r="83" ht="115" customHeight="1" spans="1:11">
       <c r="A83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>17</v>
@@ -3939,10 +3936,10 @@
         <v>18</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>20</v>
@@ -3950,25 +3947,25 @@
     </row>
     <row r="84" ht="70" customHeight="1" spans="1:11">
       <c r="A84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>20</v>
@@ -3976,22 +3973,22 @@
     </row>
     <row r="85" customHeight="1" spans="1:11">
       <c r="A85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>20</v>
@@ -3999,22 +3996,22 @@
     </row>
     <row r="86" customHeight="1" spans="1:11">
       <c r="A86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>20</v>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -1834,7 +1834,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -3994,7 +3994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:11">
+    <row r="86" ht="88" customHeight="1" spans="1:11">
       <c r="A86" s="1">
         <v>1</v>
       </c>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="261">
   <si>
     <t>is_test</t>
   </si>
@@ -1832,9 +1832,9 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
@@ -2262,6 +2262,9 @@
       <c r="E16" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>61</v>
       </c>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
@@ -2285,6 +2288,7 @@
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>37</v>
       </c>
@@ -2294,7 +2298,7 @@
     </row>
     <row r="18" ht="121" customHeight="1" spans="1:11">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>

--- a/test_data/api_doc/api_pitpat.xlsx
+++ b/test_data/api_doc/api_pitpat.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">api!$D$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">api!$D$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="256">
   <si>
     <t>is_test</t>
   </si>
@@ -61,49 +61,25 @@
     <t>fix_sql</t>
   </si>
   <si>
-    <t>登录注册</t>
-  </si>
-  <si>
-    <t>登录-正常登录</t>
-  </si>
-  <si>
-    <t>/app/user/loginNew</t>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>开始跑</t>
+  </si>
+  <si>
+    <t>/app/runActivity/startRun</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>{"emailAddress":"mtbsw2@126.com","password":"Mtbsw54321"}</t>
-  </si>
-  <si>
-    <t>"code":"200"</t>
-  </si>
-  <si>
-    <t>登录-密码错误</t>
-  </si>
-  <si>
-    <t>{"emailAddress":"mtbsw2@126.com","password":"Mtbsw543211"}</t>
-  </si>
-  <si>
-    <t>"code":"998"</t>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>开始跑</t>
-  </si>
-  <si>
-    <t>/app/runActivity/startRun</t>
-  </si>
-  <si>
     <t>{"email":"mtbsw2@126.com"}</t>
   </si>
   <si>
     <t>{"activityId":24599,"challengeRank":4,"challengedUserId":63353,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>"code": "200"</t>
   </si>
   <si>
     <t>app数据上传</t>
@@ -366,7 +342,7 @@
     <t>{"userCouponId":524}</t>
   </si>
   <si>
-    <t>update zns_user_coupon set is_delete = 0 ,status = 0 ,gmt_use=NULL where id = 524</t>
+    <t>update zns_user_coupon set is_delete = 0 ,status = 0 ,gmt_use=NULL ,gmt_end = '2029-05-13 02:54:50' where id = 524</t>
   </si>
   <si>
     <t>券使用-翻倍卷</t>
@@ -375,7 +351,7 @@
     <t>{"userCouponId":525,"activityId":8865}</t>
   </si>
   <si>
-    <t>update zns_user_coupon set is_delete = 0 ,status = 0 ,gmt_use=NULL ,activity_id = NULL where id = 525</t>
+    <t>update zns_user_coupon set is_delete = 0 ,status = 0 ,gmt_use=NULL ,activity_id = NULL ,gmt_end = '2029-05-13 02:54:50' where id = 525</t>
   </si>
   <si>
     <t>排行榜单</t>
@@ -546,8 +522,7 @@
     <t>{"orderId":262}</t>
   </si>
   <si>
-    <t xml:space="preserve">update zns_order set   gmt_pay_end = DATE_ADD(NOW(),INTERVAL 1 DAY) where id = 262;
-</t>
+    <t>update zns_order set gmt_pay_end = DATE_ADD(NOW(),INTERVAL 1 DAY) where id = 262;</t>
   </si>
   <si>
     <t>h5推广中心</t>
@@ -589,6 +564,9 @@
     <t>/h5/order/orderInfo</t>
   </si>
   <si>
+    <t>{"orderId":268}</t>
+  </si>
+  <si>
     <t>问题列表</t>
   </si>
   <si>
@@ -628,7 +606,7 @@
     <t>/app/mind/cancel/match</t>
   </si>
   <si>
-    <t>"code":"998","msg":"已经取消过了"</t>
+    <t>"code": "998","msg":"已经取消过了"</t>
   </si>
   <si>
     <t>{"pageSize":10,"pageNum":1}</t>
@@ -640,13 +618,16 @@
     <t>/app/mind/friend/match/new</t>
   </si>
   <si>
-    <t>{"activityEntryFee":0,"matchFriendId":82511,"password":"","runMileage":1600,"userId":345}</t>
+    <t>{"activityEntryFee":0,"matchFriendId":82511,"password":"","runMileage":1600,"userId":343}</t>
   </si>
   <si>
     <t>好友对战跑请求地址-付费</t>
   </si>
   <si>
-    <t>{"activityEntryFee":1,"matchFriendId":82511,"password":"111111","runMileage":1600,"userId":345}</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>{"activityEntryFee":1,"matchFriendId":82511,"password":"111111","runMileage":1600,"userId":343}</t>
   </si>
   <si>
     <t>路线详情</t>
@@ -701,6 +682,9 @@
     <t>/h5/system/config</t>
   </si>
   <si>
+    <t>登录注册</t>
+  </si>
+  <si>
     <t>发送注册验证码</t>
   </si>
   <si>
@@ -776,7 +760,7 @@
     <t>{"activityId":53274,"activityUserIds":[345]}</t>
   </si>
   <si>
-    <t>update zns_run_activity set   activity_start_time = NOW() where id = 53274</t>
+    <t>update zns_run_activity set   activity_start_time = NOW() ,activity_end_time = DATE_ADD(NOW(),INTERVAL 100 DAY) where id = 53274::update zns_run_activity_user set is_delete=1 where activity_id = 53274 and user_id = 345</t>
   </si>
   <si>
     <t>用户取消/接受/拒绝 活动-免费</t>
@@ -785,7 +769,7 @@
     <t>/app/runActivity/handleActivity</t>
   </si>
   <si>
-    <t>update zns_run_activity_user set is_delete = 1 where activity_id = 53298 and user_id = 343</t>
+    <t>update zns_run_activity set   activity_start_time = NOW() ,activity_end_time = DATE_ADD(NOW(),INTERVAL 100 DAY),application_end_time = DATE_ADD(NOW(),INTERVAL 100 DAY) where id = 53298::update zns_run_activity_user set is_delete=1 where activity_id = 53298 and user_id = 343</t>
   </si>
   <si>
     <t>select user_state from zns_run_activity_user where activity_id = 53298 and user_id = 343 and is_delete=0</t>
@@ -797,7 +781,7 @@
     <t>{"activityId":53170,"pageNum":1,"pageSize":10,"password":"111111","runningGoals":500,"taskId":0,"userStatus":1}</t>
   </si>
   <si>
-    <t>update zns_run_activity_user set is_delete=1 where activity_id = 53170 and user_id = 343</t>
+    <t>update zns_run_activity set   activity_start_time = NOW() ,activity_end_time = DATE_ADD(NOW(),INTERVAL 100 DAY),application_end_time = DATE_ADD(NOW(),INTERVAL 100 DAY) where id = 53170::update zns_run_activity_user set is_delete=1 where activity_id = 53170 and user_id = 343</t>
   </si>
   <si>
     <t>用户进入活动跑道前判断</t>
@@ -809,7 +793,7 @@
     <t>{"activityId":53171}</t>
   </si>
   <si>
-    <t>update zns_run_activity set   activity_start_time = NOW() where id = 53171</t>
+    <t>update zns_run_activity set activity_start_time = NOW() ,activity_end_time = DATE_ADD(NOW(),INTERVAL 100 DAY) where id = 53171</t>
   </si>
   <si>
     <t>活动详情页</t>
@@ -1829,12 +1813,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1"/>
@@ -1847,7 +1831,7 @@
     <col min="6" max="6" width="12.0583333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.7833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="48.525" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="21.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="27.125" style="2" customWidth="1"/>
@@ -1900,14 +1884,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:11">
+    <row r="2" ht="70" customHeight="1" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1916,7 +1900,7 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1926,79 +1910,79 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:11">
+    <row r="3" ht="71" customHeight="1" spans="1:11">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="70" customHeight="1" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="71" customHeight="1" spans="1:11">
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>20</v>
@@ -2006,25 +1990,25 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
@@ -2032,22 +2016,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>37</v>
@@ -2058,22 +2042,25 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>20</v>
@@ -2081,22 +2068,25 @@
     </row>
     <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>20</v>
@@ -2104,25 +2094,25 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>20</v>
@@ -2130,22 +2120,25 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>20</v>
@@ -2153,22 +2146,25 @@
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>20</v>
@@ -2176,25 +2172,25 @@
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>20</v>
@@ -2202,22 +2198,25 @@
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>20</v>
@@ -2225,48 +2224,48 @@
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="121" customHeight="1" spans="1:11">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>20</v>
@@ -2277,72 +2276,74 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:11">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="121" customHeight="1" spans="1:11">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="56" customHeight="1" spans="1:11">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>20</v>
@@ -2350,51 +2351,51 @@
     </row>
     <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:11">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="56" customHeight="1" spans="1:11">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>20</v>
@@ -2402,51 +2403,51 @@
     </row>
     <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="94" customHeight="1" spans="1:11">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:11">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>20</v>
@@ -2454,10 +2455,10 @@
     </row>
     <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>79</v>
@@ -2468,6 +2469,9 @@
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>81</v>
       </c>
@@ -2475,27 +2479,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="94" customHeight="1" spans="1:11">
+    <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>20</v>
@@ -2503,25 +2507,25 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>20</v>
@@ -2529,25 +2533,25 @@
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>20</v>
@@ -2555,164 +2559,164 @@
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="98" customHeight="1" spans="1:11">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:11">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D29" t="s">
+      <c r="K29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="193" customHeight="1" spans="1:11">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:11">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>97</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>99</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="98" customHeight="1" spans="1:11">
+    <row r="31" ht="119" customHeight="1" spans="1:11">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
       </c>
       <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="K31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:11">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
         <v>103</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="193" customHeight="1" spans="1:11">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>104</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:11">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="D33" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" ht="119" customHeight="1" spans="1:11">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>20</v>
@@ -2720,25 +2724,25 @@
     </row>
     <row r="34" customHeight="1" spans="1:11">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>20</v>
@@ -2746,22 +2750,25 @@
     </row>
     <row r="35" customHeight="1" spans="1:11">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>20</v>
@@ -2769,25 +2776,25 @@
     </row>
     <row r="36" customHeight="1" spans="1:11">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>20</v>
@@ -2795,25 +2802,25 @@
     </row>
     <row r="37" customHeight="1" spans="1:11">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>20</v>
@@ -2821,25 +2828,25 @@
     </row>
     <row r="38" customHeight="1" spans="1:11">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>20</v>
@@ -2847,25 +2854,25 @@
     </row>
     <row r="39" customHeight="1" spans="1:11">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>20</v>
@@ -2873,25 +2880,25 @@
     </row>
     <row r="40" customHeight="1" spans="1:11">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>20</v>
@@ -2899,48 +2906,51 @@
     </row>
     <row r="41" customHeight="1" spans="1:11">
       <c r="A41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D41" t="s">
+      <c r="K41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="70" customHeight="1" spans="1:11">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:11">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>20</v>
@@ -2948,36 +2958,39 @@
     </row>
     <row r="43" customHeight="1" spans="1:11">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:11">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
         <v>134</v>
-      </c>
-      <c r="D43" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" ht="70" customHeight="1" spans="1:11">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
       </c>
       <c r="D44" t="s">
         <v>135</v>
@@ -2985,8 +2998,11 @@
       <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>20</v>
@@ -2994,22 +3010,25 @@
     </row>
     <row r="45" customHeight="1" spans="1:11">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F45" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>20</v>
@@ -3017,45 +3036,51 @@
     </row>
     <row r="46" customHeight="1" spans="1:11">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:11">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>20</v>
@@ -3063,36 +3088,39 @@
     </row>
     <row r="48" customHeight="1" spans="1:11">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
         <v>147</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:11">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
         <v>151</v>
@@ -3104,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>20</v>
@@ -3112,51 +3140,51 @@
     </row>
     <row r="50" customHeight="1" spans="1:11">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" t="s">
         <v>154</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="K50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" ht="46" customHeight="1" spans="1:11">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
         <v>156</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="D51" t="s">
         <v>157</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:11">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="E51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C51" t="s">
+      <c r="I51" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D51" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>20</v>
@@ -3164,10 +3192,10 @@
     </row>
     <row r="52" customHeight="1" spans="1:11">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
         <v>161</v>
@@ -3178,34 +3206,37 @@
       <c r="E52" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F52" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:11">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
         <v>163</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" ht="46" customHeight="1" spans="1:11">
-      <c r="A53" s="1">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>164</v>
       </c>
-      <c r="D53" t="s">
-        <v>165</v>
-      </c>
       <c r="E53" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F53" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H53" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>20</v>
@@ -3213,22 +3244,25 @@
     </row>
     <row r="54" customHeight="1" spans="1:11">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>20</v>
@@ -3236,25 +3270,25 @@
     </row>
     <row r="55" customHeight="1" spans="1:11">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>20</v>
@@ -3262,25 +3296,25 @@
     </row>
     <row r="56" customHeight="1" spans="1:11">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C56" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>20</v>
@@ -3288,114 +3322,129 @@
     </row>
     <row r="57" customHeight="1" spans="1:11">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" ht="70" customHeight="1" spans="1:11">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
         <v>177</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:11">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="K58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="74" customHeight="1" spans="1:11">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s">
         <v>179</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:11">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
         <v>180</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:11">
-      <c r="A59" s="1">
-        <v>1</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D60" t="s">
         <v>181</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:11">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
         <v>182</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" ht="70" customHeight="1" spans="1:11">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" ht="74" customHeight="1" spans="1:11">
-      <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>20</v>
@@ -3403,257 +3452,281 @@
     </row>
     <row r="62" customHeight="1" spans="1:11">
       <c r="A62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" ht="63" customHeight="1" spans="1:11">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:11">
-      <c r="A63" s="1">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="K63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" ht="54" spans="1:11">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" t="s">
         <v>190</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="E64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:11">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="K64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" ht="54" spans="1:11">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
         <v>192</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="65" ht="63" customHeight="1" spans="1:11">
-      <c r="A65" s="1">
-        <v>1</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="2" t="s">
+      <c r="K65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:11">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
         <v>195</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" ht="54" spans="1:11">
-      <c r="A66" s="1">
-        <v>1</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>196</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:11">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="2" t="s">
+      <c r="D67" t="s">
         <v>198</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" ht="54" spans="1:11">
-      <c r="A67" s="1">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="E67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D67" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="2" t="s">
+      <c r="K67" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" ht="77" customHeight="1" spans="1:13">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
         <v>200</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:11">
-      <c r="A68" s="1">
-        <v>1</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>201</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>37</v>
+      <c r="I68" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M68" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:11">
       <c r="A69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" t="s">
-        <v>203</v>
+        <v>14</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F69" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H69" s="2" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" ht="77" customHeight="1" spans="1:13">
+    <row r="70" customHeight="1" spans="1:11">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I70" s="2" t="s">
         <v>209</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M70" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:11">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" ht="75" customHeight="1" spans="1:11">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:11">
-      <c r="A72" s="1">
-        <v>1</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>214</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -3662,103 +3735,115 @@
       <c r="H72" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="I72" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="K72" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:11">
+    <row r="73" ht="94.5" spans="1:11">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>37</v>
+        <v>219</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" ht="75" customHeight="1" spans="1:11">
+    <row r="74" customHeight="1" spans="1:11">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F74" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H74" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" ht="94.5" spans="1:11">
+    <row r="75" customHeight="1" spans="1:11">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F75" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H75" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" ht="58" customHeight="1" spans="1:11">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:11">
-      <c r="A76" s="1">
-        <v>1</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>37</v>
+      <c r="I76" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>20</v>
@@ -3766,267 +3851,239 @@
     </row>
     <row r="77" customHeight="1" spans="1:11">
       <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" ht="199" customHeight="1" spans="1:11">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" ht="81" spans="1:11">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" ht="89" customHeight="1" spans="1:13">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M80" s="2">
         <v>1</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" ht="58" customHeight="1" spans="1:11">
-      <c r="A78" s="1">
-        <v>1</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:11">
-      <c r="A79" s="1">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" ht="199" customHeight="1" spans="1:11">
-      <c r="A80" s="1">
-        <v>1</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:11">
+    </row>
+    <row r="81" ht="115" customHeight="1" spans="1:11">
       <c r="A81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="E81" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="H81" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="82" ht="89" customHeight="1" spans="1:13">
+    <row r="82" ht="70" customHeight="1" spans="1:11">
       <c r="A82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F82" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H82" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L82" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="115" customHeight="1" spans="1:11">
+    </row>
+    <row r="83" customHeight="1" spans="1:11">
       <c r="A83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" ht="70" customHeight="1" spans="1:11">
+    <row r="84" ht="88" customHeight="1" spans="1:11">
       <c r="A84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F84" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H84" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:11">
-      <c r="A85" s="1">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" ht="88" customHeight="1" spans="1:11">
-      <c r="A86" s="1">
-        <v>1</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D86">
+  <autoFilter ref="D1:D84">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C63" r:id="rId1" display="开始智能匹配" tooltip="http://kjdoc.yijiesudai.com/pages/viewpage.action?pageId=29262275"/>
+    <hyperlink ref="C61" r:id="rId1" display="开始智能匹配" tooltip="http://kjdoc.yijiesudai.com/pages/viewpage.action?pageId=29262275"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
